--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_21_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_21_36.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3171364.90485531</v>
+        <v>3286896.419721478</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283177</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>28.33592091243833</v>
+        <v>162.5831330369104</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -665,19 +667,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="F2" t="n">
-        <v>187.5255871663199</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>187.5255871663199</v>
+        <v>13.09783323005805</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,13 +709,13 @@
         <v>11.36529914368134</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -725,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,19 +737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -786,25 +788,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
         <v>187.5255871663199</v>
       </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>49.16037710425537</v>
       </c>
       <c r="X3" t="n">
-        <v>137.3861289370404</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -817,28 +819,28 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>23.43375830553084</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,23 +861,23 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.343082173845801</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>132.8223696106904</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
         <v>187.5255871663199</v>
       </c>
-      <c r="U4" t="n">
-        <v>67.95663229710811</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
@@ -883,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>91.74060501213305</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>349.2299344537602</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -905,16 +907,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>349.2299344537579</v>
+        <v>65.41667320382791</v>
       </c>
       <c r="G5" t="n">
-        <v>225.1819480596221</v>
+        <v>12.53823624078098</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>103.897454190871</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,13 +952,13 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1244928058882</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.2299344537579</v>
+        <v>349.2299344537602</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -978,22 +980,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>135.8643785804277</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>97.95007950277707</v>
       </c>
       <c r="I6" t="n">
-        <v>32.57329896994584</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,13 +1022,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>8.321493021611744</v>
+        <v>8.321493021611502</v>
       </c>
       <c r="S6" t="n">
-        <v>144.2088206736374</v>
+        <v>144.2088206736373</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>181.1252100415848</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1035,13 +1037,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1051,31 +1053,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.7509192581389</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>118.1584857285475</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>5.686931024056705</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>121.5357799573316</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1108,10 +1110,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>172.3406194605347</v>
+        <v>13.05879112126762</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1120,7 +1122,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1139,10 +1141,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>91.6151371285325</v>
+        <v>106.894287442551</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>411.547702772954</v>
@@ -1151,7 +1153,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247044</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1230,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1297,19 +1299,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,25 +1341,25 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>125.7857570407596</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>128.4678041713258</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174129</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1464,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>28.75188085812253</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922687</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462238</v>
+        <v>102.7673426709131</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856543</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012159</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016445</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272882</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.5229983365909</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520947</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1604,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174129</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1701,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1762,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>28.75188085812253</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922687</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462238</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856543</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012159</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272882</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.184474389244</v>
+        <v>13.03790159951642</v>
       </c>
       <c r="V16" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.5229983365909</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520947</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1850,16 +1852,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444124</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1999,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922687</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>1.799772605719095</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856542</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012157</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016445</v>
+        <v>108.3764982651487</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272882</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.5229983365909</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520947</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2138,10 +2140,10 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2236,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>104.891381999981</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229311</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922687</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012157</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272882</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.184474389244</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.1376433238279</v>
+        <v>245.8796921214428</v>
       </c>
       <c r="W22" t="n">
-        <v>286.5229983365909</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520947</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2330,10 +2332,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444133</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2473,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182122</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465691</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229311</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>88.92406475355577</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462238</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856542</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016445</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.184474389244</v>
+        <v>174.7683347992599</v>
       </c>
       <c r="V25" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.5229983365909</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2710,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2722,10 +2724,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>90.48716302792768</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2758,22 +2760,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>266.0941464746417</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2804,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187859</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2843,10 +2845,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2953,7 +2955,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -2962,7 +2964,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -2995,22 +2997,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>142.3575218158273</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>120.4832454124057</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3086,7 +3088,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3184,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3199,13 +3201,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3241,13 +3243,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>245.8796921214428</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>134.1795292011433</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3269,7 +3271,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3278,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3427,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3484,7 +3486,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>120.4832454124066</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3563,13 +3565,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656054</v>
       </c>
     </row>
     <row r="39">
@@ -3664,10 +3666,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3676,7 +3678,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3724,10 +3726,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>92.0157691544086</v>
       </c>
     </row>
     <row r="41">
@@ -3755,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3895,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3907,7 +3909,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>104.7777418077836</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3955,13 +3957,13 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>179.1359327421197</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4028,10 +4030,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881311</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4138,13 +4140,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>20.67756722603083</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4183,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>198.5094282323931</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4304,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>520.5803211678657</v>
+        <v>224.59746731481</v>
       </c>
       <c r="C2" t="n">
-        <v>520.5803211678657</v>
+        <v>224.59746731481</v>
       </c>
       <c r="D2" t="n">
-        <v>520.5803211678657</v>
+        <v>224.59746731481</v>
       </c>
       <c r="E2" t="n">
-        <v>520.5803211678657</v>
+        <v>35.17768229832527</v>
       </c>
       <c r="F2" t="n">
-        <v>331.1605361513809</v>
+        <v>28.2321815491218</v>
       </c>
       <c r="G2" t="n">
-        <v>141.7407511348962</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H2" t="n">
-        <v>141.7407511348962</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I2" t="n">
         <v>15.00204697330559</v>
@@ -4355,25 +4357,25 @@
         <v>738.6222485201467</v>
       </c>
       <c r="S2" t="n">
-        <v>738.6222485201467</v>
+        <v>578.2426392372648</v>
       </c>
       <c r="T2" t="n">
-        <v>738.6222485201467</v>
+        <v>578.2426392372648</v>
       </c>
       <c r="U2" t="n">
-        <v>738.6222485201467</v>
+        <v>388.8228542207801</v>
       </c>
       <c r="V2" t="n">
-        <v>738.6222485201467</v>
+        <v>388.8228542207801</v>
       </c>
       <c r="W2" t="n">
-        <v>738.6222485201467</v>
+        <v>388.8228542207801</v>
       </c>
       <c r="X2" t="n">
-        <v>738.6222485201467</v>
+        <v>388.8228542207801</v>
       </c>
       <c r="Y2" t="n">
-        <v>549.202463503662</v>
+        <v>388.8228542207801</v>
       </c>
     </row>
     <row r="3">
@@ -4383,16 +4385,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>64.27357399906981</v>
+        <v>359.7425416334361</v>
       </c>
       <c r="C3" t="n">
-        <v>64.27357399906981</v>
+        <v>359.7425416334361</v>
       </c>
       <c r="D3" t="n">
-        <v>64.27357399906981</v>
+        <v>210.8081319721848</v>
       </c>
       <c r="E3" t="n">
-        <v>64.27357399906981</v>
+        <v>210.8081319721848</v>
       </c>
       <c r="F3" t="n">
         <v>64.27357399906981</v>
@@ -4416,10 +4418,10 @@
         <v>183.5548280772649</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140244</v>
+        <v>338.7690911140243</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546598</v>
+        <v>512.50005875466</v>
       </c>
       <c r="O3" t="n">
         <v>649.2101578476347</v>
@@ -4434,25 +4436,25 @@
         <v>750.1023486652795</v>
       </c>
       <c r="S3" t="n">
-        <v>750.1023486652795</v>
+        <v>598.8192732198758</v>
       </c>
       <c r="T3" t="n">
-        <v>750.1023486652795</v>
+        <v>598.8192732198758</v>
       </c>
       <c r="U3" t="n">
-        <v>560.6825636487947</v>
+        <v>598.8192732198758</v>
       </c>
       <c r="V3" t="n">
-        <v>560.6825636487947</v>
+        <v>409.399488203391</v>
       </c>
       <c r="W3" t="n">
-        <v>560.6825636487947</v>
+        <v>359.7425416334361</v>
       </c>
       <c r="X3" t="n">
-        <v>421.9086960356226</v>
+        <v>359.7425416334361</v>
       </c>
       <c r="Y3" t="n">
-        <v>232.4889110191378</v>
+        <v>359.7425416334361</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>354.4986403340025</v>
+        <v>468.0152858587613</v>
       </c>
       <c r="C4" t="n">
-        <v>185.5624574060956</v>
+        <v>468.0152858587613</v>
       </c>
       <c r="D4" t="n">
-        <v>185.5624574060956</v>
+        <v>317.8986464464256</v>
       </c>
       <c r="E4" t="n">
-        <v>185.5624574060956</v>
+        <v>169.9855528640325</v>
       </c>
       <c r="F4" t="n">
-        <v>38.67250990818523</v>
+        <v>169.9855528640325</v>
       </c>
       <c r="G4" t="n">
-        <v>38.67250990818523</v>
+        <v>169.9855528640325</v>
       </c>
       <c r="H4" t="n">
-        <v>38.67250990818523</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I4" t="n">
-        <v>38.67250990818523</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J4" t="n">
         <v>15.00204697330559</v>
       </c>
       <c r="K4" t="n">
-        <v>106.7151088594234</v>
+        <v>97.14600182505438</v>
       </c>
       <c r="L4" t="n">
-        <v>279.6026869745584</v>
+        <v>270.0335799401894</v>
       </c>
       <c r="M4" t="n">
-        <v>465.2530182692151</v>
+        <v>285.9838492295949</v>
       </c>
       <c r="N4" t="n">
-        <v>650.9033495638718</v>
+        <v>471.6341805242515</v>
       </c>
       <c r="O4" t="n">
-        <v>750.1023486652795</v>
+        <v>634.3723839608017</v>
       </c>
       <c r="P4" t="n">
         <v>750.1023486652795</v>
       </c>
       <c r="Q4" t="n">
-        <v>746.7254979846272</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R4" t="n">
-        <v>612.5614882768591</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="S4" t="n">
-        <v>612.5614882768591</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="T4" t="n">
-        <v>423.1417032603744</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="U4" t="n">
-        <v>354.4986403340025</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="V4" t="n">
-        <v>354.4986403340025</v>
+        <v>560.6825636487947</v>
       </c>
       <c r="W4" t="n">
-        <v>354.4986403340025</v>
+        <v>560.6825636487947</v>
       </c>
       <c r="X4" t="n">
-        <v>354.4986403340025</v>
+        <v>560.6825636487947</v>
       </c>
       <c r="Y4" t="n">
-        <v>354.4986403340025</v>
+        <v>468.0152858587613</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>713.0993409222108</v>
+        <v>106.680727528633</v>
       </c>
       <c r="C5" t="n">
-        <v>713.0993409222108</v>
+        <v>106.680727528633</v>
       </c>
       <c r="D5" t="n">
-        <v>713.0993409222108</v>
+        <v>106.680727528633</v>
       </c>
       <c r="E5" t="n">
-        <v>713.0993409222108</v>
+        <v>106.680727528633</v>
       </c>
       <c r="F5" t="n">
-        <v>360.3418313729603</v>
+        <v>40.60327984799878</v>
       </c>
       <c r="G5" t="n">
-        <v>132.8853181814229</v>
+        <v>27.93839475630081</v>
       </c>
       <c r="H5" t="n">
-        <v>132.8853181814229</v>
+        <v>27.93839475630081</v>
       </c>
       <c r="I5" t="n">
-        <v>27.93839475630064</v>
+        <v>27.93839475630081</v>
       </c>
       <c r="J5" t="n">
-        <v>80.99020340874705</v>
+        <v>80.99020340874745</v>
       </c>
       <c r="K5" t="n">
-        <v>211.2396305620554</v>
+        <v>211.2396305620568</v>
       </c>
       <c r="L5" t="n">
-        <v>409.7273242458696</v>
+        <v>409.7273242458726</v>
       </c>
       <c r="M5" t="n">
-        <v>662.2525653973876</v>
+        <v>662.252565397392</v>
       </c>
       <c r="N5" t="n">
-        <v>923.4777373365815</v>
+        <v>923.4777373365872</v>
       </c>
       <c r="O5" t="n">
-        <v>1156.809998477541</v>
+        <v>1156.809998477548</v>
       </c>
       <c r="P5" t="n">
-        <v>1321.452684169744</v>
+        <v>1321.452684169752</v>
       </c>
       <c r="Q5" t="n">
-        <v>1396.919737815032</v>
+        <v>1396.919737815041</v>
       </c>
       <c r="R5" t="n">
-        <v>1396.919737815032</v>
+        <v>1396.919737815041</v>
       </c>
       <c r="S5" t="n">
-        <v>1396.919737815032</v>
+        <v>1396.919737815041</v>
       </c>
       <c r="T5" t="n">
-        <v>1396.919737815032</v>
+        <v>1396.919737815041</v>
       </c>
       <c r="U5" t="n">
-        <v>1396.919737815032</v>
+        <v>1143.258633970709</v>
       </c>
       <c r="V5" t="n">
-        <v>1065.856850471461</v>
+        <v>812.1957466271384</v>
       </c>
       <c r="W5" t="n">
-        <v>713.0993409222108</v>
+        <v>459.4382370778857</v>
       </c>
       <c r="X5" t="n">
-        <v>713.0993409222108</v>
+        <v>459.4382370778857</v>
       </c>
       <c r="Y5" t="n">
-        <v>713.0993409222108</v>
+        <v>459.4382370778857</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>827.23691490995</v>
+        <v>597.8050993289488</v>
       </c>
       <c r="C6" t="n">
-        <v>652.783885628823</v>
+        <v>423.3520700478218</v>
       </c>
       <c r="D6" t="n">
-        <v>503.8494759675717</v>
+        <v>423.3520700478218</v>
       </c>
       <c r="E6" t="n">
-        <v>344.6120209621162</v>
+        <v>264.1146150423663</v>
       </c>
       <c r="F6" t="n">
-        <v>198.0774629890012</v>
+        <v>264.1146150423663</v>
       </c>
       <c r="G6" t="n">
-        <v>60.84071694816512</v>
+        <v>126.8778690015302</v>
       </c>
       <c r="H6" t="n">
-        <v>60.84071694816512</v>
+        <v>27.93839475630081</v>
       </c>
       <c r="I6" t="n">
-        <v>27.93839475630064</v>
+        <v>27.93839475630081</v>
       </c>
       <c r="J6" t="n">
-        <v>40.71784159143139</v>
+        <v>40.71784159143193</v>
       </c>
       <c r="K6" t="n">
-        <v>332.4282120100583</v>
+        <v>332.4282120100621</v>
       </c>
       <c r="L6" t="n">
-        <v>513.2089724545716</v>
+        <v>513.2089724545763</v>
       </c>
       <c r="M6" t="n">
-        <v>743.5284611879845</v>
+        <v>743.5284611879902</v>
       </c>
       <c r="N6" t="n">
-        <v>994.3524663668901</v>
+        <v>994.3524663668968</v>
       </c>
       <c r="O6" t="n">
-        <v>1201.587633459975</v>
+        <v>1201.587633459982</v>
       </c>
       <c r="P6" t="n">
-        <v>1348.57905898396</v>
+        <v>1348.579058983968</v>
       </c>
       <c r="Q6" t="n">
-        <v>1396.919737815032</v>
+        <v>1396.919737815041</v>
       </c>
       <c r="R6" t="n">
-        <v>1388.514189308353</v>
+        <v>1388.514189308362</v>
       </c>
       <c r="S6" t="n">
-        <v>1242.848713880437</v>
+        <v>1242.848713880446</v>
       </c>
       <c r="T6" t="n">
-        <v>1242.848713880437</v>
+        <v>1059.893956262683</v>
       </c>
       <c r="U6" t="n">
-        <v>1242.848713880437</v>
+        <v>1059.893956262683</v>
       </c>
       <c r="V6" t="n">
-        <v>1242.848713880437</v>
+        <v>1059.893956262683</v>
       </c>
       <c r="W6" t="n">
-        <v>1242.848713880437</v>
+        <v>805.6565995344816</v>
       </c>
       <c r="X6" t="n">
-        <v>1034.997213674904</v>
+        <v>597.8050993289488</v>
       </c>
       <c r="Y6" t="n">
-        <v>827.23691490995</v>
+        <v>597.8050993289488</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>344.2867603166118</v>
+        <v>597.954455807126</v>
       </c>
       <c r="C7" t="n">
-        <v>344.2867603166118</v>
+        <v>597.954455807126</v>
       </c>
       <c r="D7" t="n">
-        <v>344.2867603166118</v>
+        <v>447.8378163947903</v>
       </c>
       <c r="E7" t="n">
-        <v>196.3736667342187</v>
+        <v>299.9247228123972</v>
       </c>
       <c r="F7" t="n">
-        <v>196.3736667342187</v>
+        <v>153.0347753144868</v>
       </c>
       <c r="G7" t="n">
-        <v>27.93839475630064</v>
+        <v>153.0347753144868</v>
       </c>
       <c r="H7" t="n">
-        <v>27.93839475630064</v>
+        <v>153.0347753144868</v>
       </c>
       <c r="I7" t="n">
-        <v>27.93839475630064</v>
+        <v>33.68276952807526</v>
       </c>
       <c r="J7" t="n">
-        <v>27.93839475630064</v>
+        <v>27.93839475630081</v>
       </c>
       <c r="K7" t="n">
-        <v>148.5233105874697</v>
+        <v>148.5233105874702</v>
       </c>
       <c r="L7" t="n">
-        <v>358.3569215208652</v>
+        <v>358.3569215208663</v>
       </c>
       <c r="M7" t="n">
-        <v>589.9861665014294</v>
+        <v>589.9861665014308</v>
       </c>
       <c r="N7" t="n">
-        <v>821.5424021750273</v>
+        <v>821.5424021750293</v>
       </c>
       <c r="O7" t="n">
-        <v>1019.405768767889</v>
+        <v>1019.405768767891</v>
       </c>
       <c r="P7" t="n">
-        <v>1165.191378612035</v>
+        <v>1165.191378612038</v>
       </c>
       <c r="Q7" t="n">
-        <v>1182.690698049276</v>
+        <v>1182.690698049279</v>
       </c>
       <c r="R7" t="n">
-        <v>1182.690698049276</v>
+        <v>1059.927283950964</v>
       </c>
       <c r="S7" t="n">
-        <v>1182.690698049276</v>
+        <v>1059.927283950964</v>
       </c>
       <c r="T7" t="n">
-        <v>1182.690698049276</v>
+        <v>1059.927283950964</v>
       </c>
       <c r="U7" t="n">
-        <v>1008.609264250756</v>
+        <v>1046.736585848673</v>
       </c>
       <c r="V7" t="n">
-        <v>753.9247760448688</v>
+        <v>1046.736585848673</v>
       </c>
       <c r="W7" t="n">
-        <v>753.9247760448688</v>
+        <v>1046.736585848673</v>
       </c>
       <c r="X7" t="n">
-        <v>525.9352251468515</v>
+        <v>818.7470349506561</v>
       </c>
       <c r="Y7" t="n">
-        <v>525.9352251468515</v>
+        <v>597.954455807126</v>
       </c>
     </row>
     <row r="8">
@@ -4778,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1709.873294294348</v>
+        <v>1321.266375419619</v>
       </c>
       <c r="C8" t="n">
-        <v>1340.910777353936</v>
+        <v>952.3038584792075</v>
       </c>
       <c r="D8" t="n">
-        <v>1340.910777353936</v>
+        <v>952.3038584792075</v>
       </c>
       <c r="E8" t="n">
-        <v>1248.370234799863</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F8" t="n">
         <v>837.3843300102556</v>
@@ -4799,19 +4801,19 @@
         <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087291</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
         <v>1656.671415230817</v>
@@ -4829,25 +4831,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T8" t="n">
-        <v>2353.59368700598</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="U8" t="n">
-        <v>2100.01262627016</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="V8" t="n">
-        <v>2100.01262627016</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="W8" t="n">
-        <v>2100.01262627016</v>
+        <v>2084.871465656511</v>
       </c>
       <c r="X8" t="n">
-        <v>2100.01262627016</v>
+        <v>1711.405707395431</v>
       </c>
       <c r="Y8" t="n">
-        <v>1709.873294294348</v>
+        <v>1321.266375419619</v>
       </c>
     </row>
     <row r="9">
@@ -4857,49 +4859,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F9" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057898</v>
+        <v>71.67401812057875</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380223</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694942</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M9" t="n">
-        <v>1272.508600828714</v>
+        <v>956.284402521753</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.79372942566</v>
+        <v>1590.463386300791</v>
       </c>
       <c r="O9" t="n">
-        <v>1991.864164601822</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434119</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4914,16 +4916,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>471.9783454282415</v>
+        <v>347.89877828689</v>
       </c>
       <c r="C10" t="n">
-        <v>471.9783454282415</v>
+        <v>347.89877828689</v>
       </c>
       <c r="D10" t="n">
-        <v>471.9783454282415</v>
+        <v>347.89877828689</v>
       </c>
       <c r="E10" t="n">
-        <v>471.9783454282415</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="F10" t="n">
-        <v>325.0883979303312</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="G10" t="n">
-        <v>157.1019332386097</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386097</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312202</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.219460709659</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.86271359008</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S10" t="n">
-        <v>1337.233965749941</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="T10" t="n">
-        <v>1337.233965749941</v>
+        <v>1310.884232784815</v>
       </c>
       <c r="U10" t="n">
-        <v>1210.17764550675</v>
+        <v>1021.765895288652</v>
       </c>
       <c r="V10" t="n">
-        <v>1210.17764550675</v>
+        <v>767.0814070827656</v>
       </c>
       <c r="W10" t="n">
-        <v>920.760475469789</v>
+        <v>477.664237045805</v>
       </c>
       <c r="X10" t="n">
-        <v>692.7709245717716</v>
+        <v>347.89877828689</v>
       </c>
       <c r="Y10" t="n">
-        <v>471.9783454282415</v>
+        <v>347.89877828689</v>
       </c>
     </row>
     <row r="11">
@@ -5021,37 +5023,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5066,16 +5068,16 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
         <v>3467.980956852888</v>
@@ -5084,7 +5086,7 @@
         <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5112,25 +5114,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756265</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M12" t="n">
-        <v>1072.713683962606</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N12" t="n">
-        <v>1700.311647517212</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O12" t="n">
         <v>1859.536823237711</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400734</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C13" t="n">
-        <v>513.8536007400734</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D13" t="n">
-        <v>513.8536007400734</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="E13" t="n">
-        <v>513.8536007400734</v>
+        <v>446.9048623224643</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429799</v>
+        <v>446.9048623224643</v>
       </c>
       <c r="G13" t="n">
-        <v>317.61519755786</v>
+        <v>279.7087630373442</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797746</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648821</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.28419561186</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X13" t="n">
-        <v>916.294644713843</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.502065570313</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="14">
@@ -5258,31 +5260,31 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
         <v>2206.558663014779</v>
@@ -5291,28 +5293,28 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
         <v>3467.980956852888</v>
@@ -5321,7 +5323,7 @@
         <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5349,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L15" t="n">
-        <v>680.0291294438179</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M15" t="n">
-        <v>680.0291294438179</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2517.442480416598</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2517.442480416598</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2517.442480416598</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400734</v>
+        <v>789.7592298206043</v>
       </c>
       <c r="C16" t="n">
-        <v>484.8112968429799</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429799</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429799</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429799</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G16" t="n">
-        <v>317.61519755786</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797746</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1964.291482935239</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648821</v>
+        <v>1709.606994729352</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.28419561186</v>
+        <v>1420.189824692392</v>
       </c>
       <c r="X16" t="n">
-        <v>916.294644713843</v>
+        <v>1192.200273794374</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.502065570313</v>
+        <v>971.4076946508441</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362673</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C18" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D18" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F18" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G18" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>2565.513299557012</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>3060.83890577277</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>3658.217393399322</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>4285.815356953929</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>4457.571492023711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>4457.571492023711</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R18" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S18" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T18" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U18" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V18" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W18" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X18" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y18" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400738</v>
+        <v>806.8386896933887</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121671</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121671</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121671</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121671</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270471</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000581</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487569</v>
+        <v>2270.446169463826</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.46108051051</v>
+        <v>2270.446169463826</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854708</v>
+        <v>1981.370942808024</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648821</v>
+        <v>1726.686454602137</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611861</v>
+        <v>1437.269284565176</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138435</v>
+        <v>1209.279733667159</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703134</v>
+        <v>988.4871545236284</v>
       </c>
     </row>
     <row r="20">
@@ -5747,22 +5749,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5789,10 +5791,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5826,31 +5828,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N21" t="n">
-        <v>1670.092171589158</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O21" t="n">
-        <v>2222.001901828445</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400738</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C22" t="n">
-        <v>513.8536007400738</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D22" t="n">
-        <v>513.8536007400738</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310021</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330918</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487569</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.46108051051</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854708</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648821</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611861</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138435</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703134</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="23">
@@ -5969,40 +5971,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362682</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6066,19 +6068,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L24" t="n">
-        <v>352.5519571452614</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M24" t="n">
-        <v>949.9304447718133</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.52840832642</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O24" t="n">
         <v>2129.438138565707</v>
@@ -6121,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1021.29334860826</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C25" t="n">
-        <v>852.3571656803532</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D25" t="n">
-        <v>702.2405262680176</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E25" t="n">
-        <v>554.3274326856246</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F25" t="n">
-        <v>407.4374851877143</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>317.61519755786</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
         <v>175.9033664000582</v>
@@ -6154,7 +6156,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
         <v>1665.560112570818</v>
@@ -6163,34 +6165,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235166</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T25" t="n">
-        <v>2264.108249235166</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U25" t="n">
-        <v>1975.033022579364</v>
+        <v>1983.7822433412</v>
       </c>
       <c r="V25" t="n">
-        <v>1720.348534373477</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="W25" t="n">
-        <v>1430.931364336517</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X25" t="n">
-        <v>1202.9418134385</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y25" t="n">
-        <v>1202.9418134385</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="26">
@@ -6215,10 +6217,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
@@ -6230,13 +6232,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6303,25 +6305,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L27" t="n">
-        <v>352.5519571452614</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M27" t="n">
-        <v>949.9304447718133</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>782.8410298377091</v>
+        <v>1022.872235754091</v>
       </c>
       <c r="C28" t="n">
-        <v>782.8410298377091</v>
+        <v>853.936052826184</v>
       </c>
       <c r="D28" t="n">
-        <v>632.7243904253734</v>
+        <v>703.8194134138482</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>555.9063198314551</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>409.0163723335447</v>
       </c>
       <c r="G28" t="n">
         <v>317.6151975578602</v>
@@ -6406,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U28" t="n">
-        <v>1775.724818122104</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V28" t="n">
-        <v>1521.040329916217</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W28" t="n">
-        <v>1231.623159879256</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="X28" t="n">
-        <v>1003.633608981239</v>
+        <v>1425.313279727861</v>
       </c>
       <c r="Y28" t="n">
-        <v>782.8410298377091</v>
+        <v>1204.520700584331</v>
       </c>
     </row>
     <row r="29">
@@ -6443,13 +6445,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168604</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6458,13 +6460,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6537,31 +6539,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N30" t="n">
-        <v>1670.092171589158</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>931.4710609784063</v>
+        <v>948.5505208511906</v>
       </c>
       <c r="C31" t="n">
-        <v>762.5348780504994</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="D31" t="n">
-        <v>612.4182386381636</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E31" t="n">
-        <v>464.5051450557705</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F31" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
         <v>317.6151975578602</v>
@@ -6643,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1938.286391947399</v>
+        <v>1833.665603928865</v>
       </c>
       <c r="V31" t="n">
-        <v>1683.601903741512</v>
+        <v>1578.981115722978</v>
       </c>
       <c r="W31" t="n">
-        <v>1561.901655850193</v>
+        <v>1578.981115722978</v>
       </c>
       <c r="X31" t="n">
-        <v>1333.912104952176</v>
+        <v>1350.99156482496</v>
       </c>
       <c r="Y31" t="n">
-        <v>1113.119525808646</v>
+        <v>1130.19898568143</v>
       </c>
     </row>
     <row r="32">
@@ -6695,25 +6697,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6734,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6780,25 +6782,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>680.0291294438176</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2443.97263649114</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1098.667160263527</v>
+        <v>3093.254426444652</v>
       </c>
       <c r="C34" t="n">
-        <v>929.7309773356195</v>
+        <v>2924.318243516745</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232838</v>
+        <v>2774.20160410441</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408906</v>
+        <v>2626.288510522017</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>2479.398563024106</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>2479.398563024106</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U34" t="n">
-        <v>1977.461080510508</v>
+        <v>3932.255922673039</v>
       </c>
       <c r="V34" t="n">
-        <v>1729.097755135313</v>
+        <v>3677.571434467152</v>
       </c>
       <c r="W34" t="n">
-        <v>1729.097755135313</v>
+        <v>3542.0365564862</v>
       </c>
       <c r="X34" t="n">
-        <v>1501.108204237296</v>
+        <v>3314.047005588182</v>
       </c>
       <c r="Y34" t="n">
-        <v>1280.315625093766</v>
+        <v>3093.254426444652</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6916,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6923,22 +6925,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6947,37 +6949,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,31 +7010,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>119.2902967703784</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>119.2902967703784</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>119.2902967703784</v>
       </c>
       <c r="M36" t="n">
-        <v>1501.8401750111</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N36" t="n">
-        <v>2129.438138565707</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1561.901655850193</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="38">
@@ -7166,16 +7168,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7184,31 +7186,31 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
         <v>3467.980956852889</v>
@@ -7236,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L39" t="n">
-        <v>680.0291294438176</v>
+        <v>352.5519571452613</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="41">
@@ -7388,70 +7390,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362681</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111729</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,34 +7484,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>119.290296770379</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N42" t="n">
-        <v>1859.536823237711</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3301.483384420093</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C43" t="n">
-        <v>3132.547201492187</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D43" t="n">
-        <v>2982.430562079851</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E43" t="n">
-        <v>2834.517468497458</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F43" t="n">
-        <v>2728.681365661313</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H43" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>4440.9326143059</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>4221.331149328841</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>4221.331149328841</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V43" t="n">
-        <v>4221.331149328841</v>
+        <v>1789.822296052219</v>
       </c>
       <c r="W43" t="n">
-        <v>3931.91397929188</v>
+        <v>1500.405126015258</v>
       </c>
       <c r="X43" t="n">
-        <v>3703.924428393863</v>
+        <v>1319.459739407057</v>
       </c>
       <c r="Y43" t="n">
-        <v>3483.131849250333</v>
+        <v>1098.667160263527</v>
       </c>
     </row>
     <row r="44">
@@ -7628,55 +7630,55 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192832</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111739</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075831</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014781</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
         <v>4151.812499466573</v>
@@ -7710,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,34 +7721,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>214.9229991561138</v>
+        <v>175.8744207939072</v>
       </c>
       <c r="L45" t="n">
-        <v>710.2486053718725</v>
+        <v>671.2000270096659</v>
       </c>
       <c r="M45" t="n">
-        <v>1307.627092998424</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>782.8410298377092</v>
+        <v>3044.370838283061</v>
       </c>
       <c r="C46" t="n">
-        <v>782.8410298377092</v>
+        <v>3044.370838283061</v>
       </c>
       <c r="D46" t="n">
-        <v>632.7243904253735</v>
+        <v>3023.484406741616</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429803</v>
+        <v>2875.571313159223</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578603</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797191</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.96308358026</v>
+        <v>4507.978318053498</v>
       </c>
       <c r="T46" t="n">
-        <v>2246.448509608146</v>
+        <v>4507.978318053498</v>
       </c>
       <c r="U46" t="n">
-        <v>1957.373282952344</v>
+        <v>4218.903091397696</v>
       </c>
       <c r="V46" t="n">
-        <v>1702.688794746457</v>
+        <v>3964.218603191809</v>
       </c>
       <c r="W46" t="n">
-        <v>1413.271624709496</v>
+        <v>3674.801433154848</v>
       </c>
       <c r="X46" t="n">
-        <v>1185.282073811479</v>
+        <v>3446.811882256831</v>
       </c>
       <c r="Y46" t="n">
-        <v>964.489494667949</v>
+        <v>3226.019303113301</v>
       </c>
     </row>
   </sheetData>
@@ -8137,22 +8139,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>106.7437663446525</v>
+        <v>97.07800166347174</v>
       </c>
       <c r="L4" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
-        <v>171.4142040457083</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>163.8604018711116</v>
       </c>
       <c r="O4" t="n">
-        <v>98.8606518859406</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709386</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8237,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>41.9299346389889</v>
+        <v>41.92993463898841</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8295,7 +8297,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>193.6499349213331</v>
+        <v>193.6499349213359</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8529,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>193.3273467878345</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8541,19 +8543,19 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>249.3877325071649</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>280.1079373569282</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154985</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -11057,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>1.477928890381008e-12</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -23416,22 +23418,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986277</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182122</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>116.6691671648086</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>37.52737017531081</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23653,22 +23655,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>138.4949402405052</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182122</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229311</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23707,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>273.1465727897277</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23893,19 +23895,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182122</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465691</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>138.4949402405047</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23938,10 +23940,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>72.64978773649588</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24127,13 +24129,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>41.54258064658804</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24142,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462238</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856542</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24181,13 +24183,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>6.257951202385186</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24376,7 +24378,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>76.60007353871296</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24409,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012157</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272882</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>111.4161395899842</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520947</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24610,10 +24612,10 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>75.03697526434117</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24646,22 +24648,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>20.09032791460243</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24841,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24850,7 +24852,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24883,22 +24885,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>143.8269525734169</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>166.0397529241853</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25072,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25087,13 +25089,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25129,13 +25131,13 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>6.257951202385186</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>152.3434691354477</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25315,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25372,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>166.0397529241844</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25552,10 +25554,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25564,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25612,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>126.5688841976862</v>
       </c>
     </row>
     <row r="41">
@@ -25783,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25795,7 +25797,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>40.64330621514763</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25843,13 +25845,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>46.57372264691747</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26026,13 +26028,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>127.9379057921815</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26071,10 +26073,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>18.89602209489516</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>698883.4330017639</v>
+        <v>698883.433001764</v>
       </c>
     </row>
     <row r="9">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>698883.433001764</v>
+        <v>698883.4330017639</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>698883.433001764</v>
+        <v>698883.4330017641</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>738937.5928778552</v>
+        <v>738937.5928778551</v>
       </c>
       <c r="C2" t="n">
-        <v>738937.5928778556</v>
+        <v>738937.5928778553</v>
       </c>
       <c r="D2" t="n">
-        <v>738937.5928778546</v>
+        <v>738937.5928778545</v>
       </c>
       <c r="E2" t="n">
-        <v>726431.939721005</v>
+        <v>726431.9397210052</v>
       </c>
       <c r="F2" t="n">
+        <v>726431.9397210055</v>
+      </c>
+      <c r="G2" t="n">
         <v>726431.9397210053</v>
       </c>
-      <c r="G2" t="n">
-        <v>726431.9397210054</v>
-      </c>
       <c r="H2" t="n">
-        <v>726431.9397210052</v>
+        <v>726431.9397210055</v>
       </c>
       <c r="I2" t="n">
         <v>726431.9397210054</v>
       </c>
       <c r="J2" t="n">
+        <v>726431.9397210056</v>
+      </c>
+      <c r="K2" t="n">
         <v>726431.9397210055</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>726431.9397210054</v>
       </c>
-      <c r="L2" t="n">
-        <v>726431.9397210055</v>
-      </c>
       <c r="M2" t="n">
-        <v>726431.9397210054</v>
+        <v>726431.9397210053</v>
       </c>
       <c r="N2" t="n">
         <v>726431.9397210054</v>
       </c>
       <c r="O2" t="n">
+        <v>726431.9397210057</v>
+      </c>
+      <c r="P2" t="n">
         <v>726431.9397210054</v>
-      </c>
-      <c r="P2" t="n">
-        <v>726431.9397210057</v>
       </c>
     </row>
     <row r="3">
@@ -26366,13 +26368,13 @@
         <v>591356.9025208454</v>
       </c>
       <c r="C3" t="n">
-        <v>178997.5061427144</v>
+        <v>178997.5061427167</v>
       </c>
       <c r="D3" t="n">
-        <v>301519.8707731186</v>
+        <v>301519.870773116</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245455</v>
+        <v>507485.441624546</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,19 +26386,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854459</v>
+        <v>49064.94472854442</v>
       </c>
       <c r="K3" t="n">
-        <v>41617.52445267337</v>
+        <v>41617.52445267394</v>
       </c>
       <c r="L3" t="n">
-        <v>73739.30240019489</v>
+        <v>73739.30240019446</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289266</v>
+        <v>132607.2937289268</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,25 +26420,25 @@
         <v>277470.8484307132</v>
       </c>
       <c r="C4" t="n">
-        <v>229588.1389806961</v>
+        <v>229588.1389806955</v>
       </c>
       <c r="D4" t="n">
-        <v>145155.2306979382</v>
+        <v>145155.2306979383</v>
       </c>
       <c r="E4" t="n">
-        <v>13606.80811184285</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="F4" t="n">
-        <v>13606.80811184285</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="G4" t="n">
-        <v>13606.80811184285</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="H4" t="n">
-        <v>13606.80811184279</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="I4" t="n">
-        <v>13606.80811184279</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="J4" t="n">
         <v>13606.80811184274</v>
@@ -26445,19 +26447,19 @@
         <v>13606.80811184274</v>
       </c>
       <c r="L4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="M4" t="n">
         <v>13606.80811184275</v>
       </c>
       <c r="N4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="O4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184281</v>
       </c>
       <c r="P4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
     </row>
     <row r="5">
@@ -26470,10 +26472,10 @@
         <v>56985.80041161357</v>
       </c>
       <c r="C5" t="n">
-        <v>69851.97930029196</v>
+        <v>69851.97930029214</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-186875.958485317</v>
+        <v>-186875.9584853171</v>
       </c>
       <c r="C6" t="n">
-        <v>260499.9684541533</v>
+        <v>260499.9684541509</v>
       </c>
       <c r="D6" t="n">
-        <v>199324.7189669531</v>
+        <v>199324.7189669555</v>
       </c>
       <c r="E6" t="n">
-        <v>104217.1601607096</v>
+        <v>104217.1601607093</v>
       </c>
       <c r="F6" t="n">
-        <v>611702.6017852554</v>
+        <v>611702.6017852557</v>
       </c>
       <c r="G6" t="n">
         <v>611702.6017852555</v>
       </c>
       <c r="H6" t="n">
-        <v>611702.6017852551</v>
+        <v>611702.6017852557</v>
       </c>
       <c r="I6" t="n">
         <v>611702.6017852555</v>
       </c>
       <c r="J6" t="n">
-        <v>562637.6570567111</v>
+        <v>562637.6570567114</v>
       </c>
       <c r="K6" t="n">
-        <v>570085.0773325822</v>
+        <v>570085.0773325817</v>
       </c>
       <c r="L6" t="n">
-        <v>537963.2993850608</v>
+        <v>537963.2993850611</v>
       </c>
       <c r="M6" t="n">
-        <v>479095.308056329</v>
+        <v>479095.3080563286</v>
       </c>
       <c r="N6" t="n">
         <v>611702.6017852556</v>
       </c>
       <c r="O6" t="n">
+        <v>611702.6017852558</v>
+      </c>
+      <c r="P6" t="n">
         <v>611702.6017852556</v>
-      </c>
-      <c r="P6" t="n">
-        <v>611702.6017852558</v>
       </c>
     </row>
   </sheetData>
@@ -26738,10 +26740,10 @@
         <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>687.6696919955724</v>
+        <v>687.6696919955742</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26790,10 +26792,10 @@
         <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
-        <v>349.2299344537579</v>
+        <v>349.2299344537602</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26820,16 +26822,16 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="P4" t="n">
         <v>1172.708288099648</v>
-      </c>
-      <c r="N4" t="n">
-        <v>1172.708288099648</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1172.708288099648</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1172.708288099649</v>
       </c>
     </row>
   </sheetData>
@@ -26960,13 +26962,13 @@
         <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>139.1997510826678</v>
+        <v>139.1997510826696</v>
       </c>
       <c r="D3" t="n">
-        <v>246.395200121967</v>
+        <v>246.3952001219649</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241341</v>
+        <v>433.9106082241346</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,16 +26980,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26996,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27012,13 +27014,13 @@
         <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
-        <v>161.7043472874381</v>
+        <v>161.7043472874403</v>
       </c>
       <c r="D4" t="n">
-        <v>291.354897646281</v>
+        <v>291.3548976462786</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996093</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27036,13 +27038,13 @@
         <v>187.5255871663198</v>
       </c>
       <c r="K4" t="n">
-        <v>161.7043472874381</v>
+        <v>161.7043472874403</v>
       </c>
       <c r="L4" t="n">
-        <v>291.354897646281</v>
+        <v>291.3548976462786</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996093</v>
+        <v>532.1234559996099</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27258,13 +27260,13 @@
         <v>187.5255871663199</v>
       </c>
       <c r="K4" t="n">
-        <v>161.7043472874381</v>
+        <v>161.7043472874403</v>
       </c>
       <c r="L4" t="n">
-        <v>291.354897646281</v>
+        <v>291.3548976462786</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996093</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>354.3979207510422</v>
+        <v>220.1507086265702</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27385,19 +27387,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>194.4047829059419</v>
       </c>
       <c r="F2" t="n">
-        <v>219.3504585753916</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>225.5722460637382</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>213.4438810562068</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1692605650303</v>
+        <v>63.64367339871047</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27445,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>198.7123514897337</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27455,19 +27457,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>136.1637893657753</v>
@@ -27506,25 +27508,25 @@
         <v>26.91122581714238</v>
       </c>
       <c r="S3" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>195.4095977920013</v>
       </c>
       <c r="U3" t="n">
-        <v>38.33818124377106</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>45.2749999831054</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>202.5346060566642</v>
       </c>
       <c r="X3" t="n">
-        <v>68.38685626643709</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>18.15710861098449</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27537,28 +27539,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.0019352027142</v>
       </c>
       <c r="H4" t="n">
-        <v>153.4336708318196</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>23.43375830553084</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,22 +27581,22 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>3.343082173845801</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S4" t="n">
         <v>206.7802557954962</v>
       </c>
       <c r="T4" t="n">
-        <v>36.19408632378023</v>
+        <v>223.7196734901001</v>
       </c>
       <c r="U4" t="n">
-        <v>218.3084491963422</v>
+        <v>286.2650814934503</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>64.61205615750814</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27603,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>126.8440483399617</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>33.50390720972041</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27625,16 +27627,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>57.64611128795349</v>
+        <v>341.4593725378835</v>
       </c>
       <c r="G5" t="n">
-        <v>187.3562881811589</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>311.1628534397886</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>103.8974541908707</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,19 +27666,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>146.0239967969022</v>
+        <v>146.023996796902</v>
       </c>
       <c r="T5" t="n">
-        <v>210.9942452356465</v>
+        <v>210.9942452356464</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1244928058882</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0.01103426365506266</v>
+        <v>0.01103426365284577</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27698,22 +27700,22 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>97.95007950277711</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>5.896851974249955</v>
+        <v>38.47015094419566</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27746,7 +27748,7 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>194.2027622142185</v>
+        <v>13.07755217263369</v>
       </c>
       <c r="U6" t="n">
         <v>225.8440703321075</v>
@@ -27755,13 +27757,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27771,31 +27773,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.7509192581389</v>
       </c>
       <c r="H7" t="n">
         <v>151.2019108882319</v>
       </c>
       <c r="I7" t="n">
-        <v>118.1584857285476</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>5.686931024056946</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,19 +27821,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>121.5357799573318</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>202.4057324704885</v>
+        <v>202.4057324704884</v>
       </c>
       <c r="T7" t="n">
         <v>222.6471508178238</v>
       </c>
       <c r="U7" t="n">
-        <v>113.9107702541205</v>
+        <v>273.1925985933876</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27840,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27859,10 +27861,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>290.3152329437293</v>
+        <v>275.0360826297108</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27901,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28017,19 +28019,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,25 +28061,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>160.441397080441</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>97.24185121771134</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.764501274354058</v>
+        <v>2.764501274354065</v>
       </c>
       <c r="H5" t="n">
-        <v>28.3119486759785</v>
+        <v>28.31194867597858</v>
       </c>
       <c r="I5" t="n">
-        <v>106.5784353795349</v>
+        <v>106.5784353795352</v>
       </c>
       <c r="J5" t="n">
-        <v>234.6335900342079</v>
+        <v>234.6335900342085</v>
       </c>
       <c r="K5" t="n">
-        <v>351.6549289776153</v>
+        <v>351.6549289776162</v>
       </c>
       <c r="L5" t="n">
-        <v>436.2590348526284</v>
+        <v>436.2590348526295</v>
       </c>
       <c r="M5" t="n">
-        <v>485.4222343904223</v>
+        <v>485.4222343904236</v>
       </c>
       <c r="N5" t="n">
-        <v>493.2768736361808</v>
+        <v>493.2768736361821</v>
       </c>
       <c r="O5" t="n">
-        <v>465.7873640893226</v>
+        <v>465.7873640893238</v>
       </c>
       <c r="P5" t="n">
-        <v>397.5387388787067</v>
+        <v>397.5387388787078</v>
       </c>
       <c r="Q5" t="n">
-        <v>298.535036990902</v>
+        <v>298.5350369909028</v>
       </c>
       <c r="R5" t="n">
-        <v>173.6556031751432</v>
+        <v>173.6556031751437</v>
       </c>
       <c r="S5" t="n">
-        <v>62.99607278934316</v>
+        <v>62.99607278934332</v>
       </c>
       <c r="T5" t="n">
-        <v>12.10160432848489</v>
+        <v>12.10160432848493</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2211601019483246</v>
+        <v>0.2211601019483252</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.479138582782929</v>
+        <v>1.479138582782933</v>
       </c>
       <c r="H6" t="n">
-        <v>14.28536473371935</v>
+        <v>14.28536473371938</v>
       </c>
       <c r="I6" t="n">
-        <v>50.92648190721928</v>
+        <v>50.92648190721942</v>
       </c>
       <c r="J6" t="n">
-        <v>139.7461588233644</v>
+        <v>139.7461588233648</v>
       </c>
       <c r="K6" t="n">
-        <v>238.8484438698207</v>
+        <v>238.8484438698213</v>
       </c>
       <c r="L6" t="n">
-        <v>321.1612085117058</v>
+        <v>321.1612085117067</v>
       </c>
       <c r="M6" t="n">
-        <v>374.7799821375869</v>
+        <v>374.7799821375879</v>
       </c>
       <c r="N6" t="n">
-        <v>384.6992930721269</v>
+        <v>384.6992930721279</v>
       </c>
       <c r="O6" t="n">
-        <v>351.9246960536209</v>
+        <v>351.9246960536219</v>
       </c>
       <c r="P6" t="n">
-        <v>282.4505948122946</v>
+        <v>282.4505948122954</v>
       </c>
       <c r="Q6" t="n">
-        <v>188.8107426022561</v>
+        <v>188.8107426022565</v>
       </c>
       <c r="R6" t="n">
-        <v>91.83634113103139</v>
+        <v>91.83634113103163</v>
       </c>
       <c r="S6" t="n">
-        <v>27.47435043020045</v>
+        <v>27.47435043020052</v>
       </c>
       <c r="T6" t="n">
-        <v>5.961966480603121</v>
+        <v>5.961966480603137</v>
       </c>
       <c r="U6" t="n">
-        <v>0.09731174886729803</v>
+        <v>0.09731174886729828</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.240060100319885</v>
+        <v>1.240060100319888</v>
       </c>
       <c r="H7" t="n">
-        <v>11.02526161920771</v>
+        <v>11.02526161920774</v>
       </c>
       <c r="I7" t="n">
-        <v>37.29198919871072</v>
+        <v>37.29198919871082</v>
       </c>
       <c r="J7" t="n">
-        <v>87.67224909261583</v>
+        <v>87.67224909261607</v>
       </c>
       <c r="K7" t="n">
-        <v>144.072437109892</v>
+        <v>144.0724371098924</v>
       </c>
       <c r="L7" t="n">
-        <v>184.363117096649</v>
+        <v>184.3631170966495</v>
       </c>
       <c r="M7" t="n">
-        <v>194.3850573619615</v>
+        <v>194.385057361962</v>
       </c>
       <c r="N7" t="n">
-        <v>189.7630151698603</v>
+        <v>189.7630151698608</v>
       </c>
       <c r="O7" t="n">
-        <v>175.2768585433961</v>
+        <v>175.2768585433966</v>
       </c>
       <c r="P7" t="n">
-        <v>149.9796324968704</v>
+        <v>149.9796324968707</v>
       </c>
       <c r="Q7" t="n">
-        <v>103.8381234913314</v>
+        <v>103.8381234913317</v>
       </c>
       <c r="R7" t="n">
-        <v>55.7576114198377</v>
+        <v>55.75761141983785</v>
       </c>
       <c r="S7" t="n">
-        <v>21.6108655664838</v>
+        <v>21.61086556648386</v>
       </c>
       <c r="T7" t="n">
-        <v>5.298438610457687</v>
+        <v>5.298438610457701</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06763964183563015</v>
+        <v>0.06763964183563033</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857144</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730006</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342226</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190646</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.009120711347161</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178439</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177245</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405676</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997903</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000174</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,25 +31679,25 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335773</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31704,16 +31706,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759588</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069563</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024988</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,37 +31752,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31789,10 +31791,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31838,37 +31840,37 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>303.4297552732313</v>
+        <v>188.4731159523455</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>182.689256441856</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31914,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31944,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,37 +31989,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32026,10 +32028,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32072,40 +32074,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>579.529959444714</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.689256441856</v>
+        <v>181.6580975439405</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32151,28 +32153,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32181,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32312,7 +32314,7 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
@@ -32327,13 +32329,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>316.0872899694772</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32546,7 +32548,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32555,25 +32557,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>513.0745614164389</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>195.7502366106279</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32698,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,34 +32779,34 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>248.7449369209195</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>461.1007071927452</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32813,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33023,13 +33025,13 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>248.7449369209195</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33038,13 +33040,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>653.3850396373771</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33257,10 +33259,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
@@ -33272,10 +33274,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>509.0826837242976</v>
       </c>
       <c r="O30" t="n">
-        <v>333.9544784328825</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
@@ -33284,7 +33286,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33409,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33500,37 +33502,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>242.2322097768141</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>250.1723312270667</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>152.5685698206127</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>575.5951359912046</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>579.5299594447137</v>
+        <v>399.9031616963282</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34208,22 +34210,22 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>163.5723821283055</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>322.6999460717714</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214698</v>
@@ -34232,7 +34234,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34363,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067255</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34448,7 +34450,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>260.1710714068255</v>
+        <v>220.7280629601522</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34457,10 +34459,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
         <v>561.8765786214698</v>
@@ -34469,7 +34471,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34857,22 +34859,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>92.63945645062401</v>
+        <v>82.97369176944322</v>
       </c>
       <c r="L4" t="n">
         <v>174.6339172880152</v>
       </c>
       <c r="M4" t="n">
-        <v>187.5255871663199</v>
+        <v>16.11138312061152</v>
       </c>
       <c r="N4" t="n">
         <v>187.5255871663199</v>
       </c>
       <c r="O4" t="n">
-        <v>100.2010091933411</v>
+        <v>164.382023673283</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>116.8989542469472</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>53.58768550752166</v>
+        <v>53.58768550752225</v>
       </c>
       <c r="K5" t="n">
-        <v>131.5650779326347</v>
+        <v>131.5650779326356</v>
       </c>
       <c r="L5" t="n">
-        <v>200.4926198826411</v>
+        <v>200.4926198826423</v>
       </c>
       <c r="M5" t="n">
-        <v>255.0760011631496</v>
+        <v>255.0760011631508</v>
       </c>
       <c r="N5" t="n">
-        <v>263.8638100395899</v>
+        <v>263.8638100395912</v>
       </c>
       <c r="O5" t="n">
-        <v>235.6891526676359</v>
+        <v>235.6891526676371</v>
       </c>
       <c r="P5" t="n">
-        <v>166.3057431234372</v>
+        <v>166.3057431234383</v>
       </c>
       <c r="Q5" t="n">
-        <v>76.22934711645249</v>
+        <v>76.22934711645328</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>12.90853215669773</v>
+        <v>12.9085321566981</v>
       </c>
       <c r="K6" t="n">
-        <v>294.6569398167948</v>
+        <v>294.6569398167982</v>
       </c>
       <c r="L6" t="n">
-        <v>182.6068287318316</v>
+        <v>182.6068287318325</v>
       </c>
       <c r="M6" t="n">
-        <v>232.6459482155686</v>
+        <v>232.6459482155696</v>
       </c>
       <c r="N6" t="n">
-        <v>253.3575809887936</v>
+        <v>253.3575809887946</v>
       </c>
       <c r="O6" t="n">
-        <v>209.3284516091765</v>
+        <v>209.3284516091774</v>
       </c>
       <c r="P6" t="n">
-        <v>148.4761873979644</v>
+        <v>148.4761873979652</v>
       </c>
       <c r="Q6" t="n">
-        <v>48.82896851623454</v>
+        <v>48.82896851623502</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,25 +35096,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>121.8029452840092</v>
+        <v>121.8029452840095</v>
       </c>
       <c r="L7" t="n">
-        <v>211.9531423569652</v>
+        <v>211.9531423569657</v>
       </c>
       <c r="M7" t="n">
-        <v>233.9689343238021</v>
+        <v>233.9689343238026</v>
       </c>
       <c r="N7" t="n">
-        <v>233.8951875490889</v>
+        <v>233.8951875490894</v>
       </c>
       <c r="O7" t="n">
-        <v>199.8619864574358</v>
+        <v>199.8619864574362</v>
       </c>
       <c r="P7" t="n">
-        <v>147.2581917617638</v>
+        <v>147.2581917617642</v>
       </c>
       <c r="Q7" t="n">
-        <v>17.67608023963705</v>
+        <v>17.67608023963732</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407339</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457279</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376316</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637951</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.2916633093991</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K9" t="n">
-        <v>379.9148430313194</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378503</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
-        <v>391.197099592874</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961231</v>
+        <v>615.5326193530511</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870597</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35486,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678995</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>160.8335108287869</v>
+        <v>45.87687150790109</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789208</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,13 +35567,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
         <v>426.2724270010451</v>
@@ -35641,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35720,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>440.9755796648398</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789208</v>
+        <v>35.9785935799765</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,13 +35804,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
         <v>426.2724270010451</v>
@@ -35881,7 +35883,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396416</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
         <v>479.454324036777</v>
@@ -35960,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
@@ -35975,13 +35977,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>173.4910455250327</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295347</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36194,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36203,25 +36205,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>374.5201816365647</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>61.77582919629761</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295347</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,25 +36436,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>110.1905571410453</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>318.5044627483008</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36513,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295347</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
         <v>264.332588409635</v>
@@ -36525,16 +36527,16 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
         <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36671,13 +36673,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>110.1905571410453</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36686,13 +36688,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>510.7887951929326</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36905,10 +36907,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
@@ -36920,10 +36922,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>377.7409716409642</v>
       </c>
       <c r="O30" t="n">
-        <v>191.358233988438</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
@@ -36932,7 +36934,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,28 +37150,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>103.6778299969399</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>110.1905571410452</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>25.73094315394598</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>433.4611020691863</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>440.9755796648395</v>
+        <v>261.348781916454</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37777,7 +37779,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396434</v>
       </c>
       <c r="K41" t="n">
         <v>479.454324036777</v>
@@ -37856,22 +37858,22 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>25.73094315394655</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>191.358233988438</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071395</v>
@@ -37880,7 +37882,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236319604</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38096,7 +38098,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>122.3296324324666</v>
+        <v>82.88662398579324</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38105,10 +38107,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>427.9021712071395</v>
@@ -38117,7 +38119,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_21_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_21_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3286896.419721478</v>
+        <v>3282594.25782501</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>162.5831330369104</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -667,19 +667,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>57.08569488870565</v>
       </c>
       <c r="G2" t="n">
-        <v>13.09783323005805</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>11.36529914368134</v>
+        <v>11.36529914368128</v>
       </c>
       <c r="S2" t="n">
         <v>158.7758131900531</v>
@@ -715,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -737,19 +737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>48.77881175550657</v>
+        <v>48.77881175550655</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -788,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -797,16 +797,16 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>49.16037710425537</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>34.63865826132552</v>
       </c>
     </row>
     <row r="4">
@@ -822,10 +822,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -834,13 +834,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.4336708318196</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>23.4337583055308</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -876,16 +876,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>141.7387788705639</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="Y4" t="n">
-        <v>91.74060501213305</v>
+        <v>187.5255871663201</v>
       </c>
     </row>
     <row r="5">
@@ -895,22 +895,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>349.2299344537602</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>349.229934453755</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>349.229934453755</v>
       </c>
       <c r="F5" t="n">
-        <v>65.41667320382791</v>
+        <v>316.5411660097063</v>
       </c>
       <c r="G5" t="n">
-        <v>12.53823624078098</v>
+        <v>12.538236240781</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -952,13 +952,13 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1244928058882</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.2299344537602</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -980,22 +980,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>135.8643785804277</v>
       </c>
       <c r="H6" t="n">
-        <v>97.95007950277707</v>
+        <v>92.29968131576059</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>38.47015094419598</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,13 +1022,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>8.321493021611502</v>
+        <v>8.321493021612085</v>
       </c>
       <c r="S6" t="n">
-        <v>144.2088206736373</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>181.1252100415848</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1053,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1074,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>118.1584857285475</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>5.686931024056705</v>
+        <v>5.686931024057259</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>121.5357799573316</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1110,13 +1110,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>13.05879112126762</v>
+        <v>286.2513897146553</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>59.89334949963131</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1138,19 +1138,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>106.894287442551</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>65.70991267247049</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>130.2305510842729</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1290,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>85.4556421029896</v>
       </c>
       <c r="H10" t="n">
         <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>128.4678041713258</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>63.1628130171261</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>102.7673426709131</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1660,7 +1660,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1770,22 +1770,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1821,7 +1821,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>13.03790159951642</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1852,13 +1852,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -2010,19 +2010,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S19" t="n">
-        <v>108.3764982651487</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2134,7 +2134,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2244,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2295,13 +2295,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>245.8796921214428</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,22 +2523,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>174.7683347992599</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2715,19 +2715,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>132.2740511637357</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>90.48716302792768</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2766,16 +2766,16 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>41.33703994142957</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2958,10 +2958,10 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -3006,13 +3006,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>142.3575218158273</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3186,22 +3186,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3246,10 +3246,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>194.9085394018857</v>
       </c>
       <c r="W34" t="n">
-        <v>134.1795292011433</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3268,7 +3268,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3426,25 +3426,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3486,7 +3486,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>120.4832454124066</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3571,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3666,10 +3666,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3678,10 +3678,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3726,10 +3726,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>92.0157691544086</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3757,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3909,16 +3909,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>170.9457618790573</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>179.1359327421197</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4137,25 +4137,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>20.67756722603083</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>224.59746731481</v>
+        <v>388.8228542207808</v>
       </c>
       <c r="C2" t="n">
-        <v>224.59746731481</v>
+        <v>388.8228542207808</v>
       </c>
       <c r="D2" t="n">
-        <v>224.59746731481</v>
+        <v>388.8228542207808</v>
       </c>
       <c r="E2" t="n">
-        <v>35.17768229832527</v>
+        <v>388.8228542207808</v>
       </c>
       <c r="F2" t="n">
-        <v>28.2321815491218</v>
+        <v>331.1605361513812</v>
       </c>
       <c r="G2" t="n">
-        <v>15.00204697330559</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="H2" t="n">
-        <v>15.00204697330559</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678478</v>
+        <v>21.03371160678508</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058939</v>
+        <v>80.81213159058969</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079184</v>
+        <v>191.8743094079186</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644753</v>
+        <v>347.1218190644756</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123826</v>
+        <v>509.495204112383</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985582</v>
+        <v>649.4845259985586</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020263</v>
+        <v>734.461172602027</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="R2" t="n">
-        <v>738.6222485201467</v>
+        <v>738.6222485201477</v>
       </c>
       <c r="S2" t="n">
-        <v>578.2426392372648</v>
+        <v>578.2426392372657</v>
       </c>
       <c r="T2" t="n">
-        <v>578.2426392372648</v>
+        <v>578.2426392372657</v>
       </c>
       <c r="U2" t="n">
-        <v>388.8228542207801</v>
+        <v>388.8228542207808</v>
       </c>
       <c r="V2" t="n">
-        <v>388.8228542207801</v>
+        <v>388.8228542207808</v>
       </c>
       <c r="W2" t="n">
-        <v>388.8228542207801</v>
+        <v>388.8228542207808</v>
       </c>
       <c r="X2" t="n">
-        <v>388.8228542207801</v>
+        <v>388.8228542207808</v>
       </c>
       <c r="Y2" t="n">
-        <v>388.8228542207801</v>
+        <v>388.8228542207808</v>
       </c>
     </row>
     <row r="3">
@@ -4385,16 +4385,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>359.7425416334361</v>
+        <v>546.8984679469036</v>
       </c>
       <c r="C3" t="n">
-        <v>359.7425416334361</v>
+        <v>372.4454386657766</v>
       </c>
       <c r="D3" t="n">
-        <v>210.8081319721848</v>
+        <v>223.5110290045253</v>
       </c>
       <c r="E3" t="n">
-        <v>210.8081319721848</v>
+        <v>64.27357399906981</v>
       </c>
       <c r="F3" t="n">
         <v>64.27357399906981</v>
@@ -4406,55 +4406,55 @@
         <v>64.27357399906981</v>
       </c>
       <c r="I3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024208</v>
+        <v>67.13418877024222</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772649</v>
+        <v>183.5548280772651</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140243</v>
+        <v>338.7690911140246</v>
       </c>
       <c r="N3" t="n">
-        <v>512.50005875466</v>
+        <v>512.5000587546605</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476347</v>
+        <v>649.2101578476352</v>
       </c>
       <c r="P3" t="n">
-        <v>739.598998701706</v>
+        <v>739.5989987017067</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="S3" t="n">
-        <v>598.8192732198758</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="T3" t="n">
-        <v>598.8192732198758</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="U3" t="n">
-        <v>598.8192732198758</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="V3" t="n">
-        <v>409.399488203391</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="W3" t="n">
-        <v>359.7425416334361</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="X3" t="n">
-        <v>359.7425416334361</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="Y3" t="n">
-        <v>359.7425416334361</v>
+        <v>715.1138049669717</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>468.0152858587613</v>
+        <v>38.67250990818521</v>
       </c>
       <c r="C4" t="n">
-        <v>468.0152858587613</v>
+        <v>38.67250990818521</v>
       </c>
       <c r="D4" t="n">
-        <v>317.8986464464256</v>
+        <v>38.67250990818521</v>
       </c>
       <c r="E4" t="n">
-        <v>169.9855528640325</v>
+        <v>38.67250990818521</v>
       </c>
       <c r="F4" t="n">
-        <v>169.9855528640325</v>
+        <v>38.67250990818521</v>
       </c>
       <c r="G4" t="n">
-        <v>169.9855528640325</v>
+        <v>38.67250990818521</v>
       </c>
       <c r="H4" t="n">
-        <v>15.00204697330559</v>
+        <v>38.67250990818521</v>
       </c>
       <c r="I4" t="n">
-        <v>15.00204697330559</v>
+        <v>38.67250990818521</v>
       </c>
       <c r="J4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K4" t="n">
-        <v>97.14600182505438</v>
+        <v>43.17590452428121</v>
       </c>
       <c r="L4" t="n">
-        <v>270.0335799401894</v>
+        <v>216.0634826394163</v>
       </c>
       <c r="M4" t="n">
-        <v>285.9838492295949</v>
+        <v>401.7138139340732</v>
       </c>
       <c r="N4" t="n">
-        <v>471.6341805242515</v>
+        <v>587.3641452287301</v>
       </c>
       <c r="O4" t="n">
-        <v>634.3723839608017</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="P4" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="Q4" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="R4" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="S4" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="T4" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="U4" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="V4" t="n">
-        <v>560.6825636487947</v>
+        <v>560.6825636487954</v>
       </c>
       <c r="W4" t="n">
-        <v>560.6825636487947</v>
+        <v>417.512079941155</v>
       </c>
       <c r="X4" t="n">
-        <v>560.6825636487947</v>
+        <v>228.0922949246701</v>
       </c>
       <c r="Y4" t="n">
-        <v>468.0152858587613</v>
+        <v>38.67250990818521</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>106.680727528633</v>
+        <v>1065.856850471449</v>
       </c>
       <c r="C5" t="n">
-        <v>106.680727528633</v>
+        <v>1065.856850471449</v>
       </c>
       <c r="D5" t="n">
-        <v>106.680727528633</v>
+        <v>713.0993409222019</v>
       </c>
       <c r="E5" t="n">
-        <v>106.680727528633</v>
+        <v>360.3418313729543</v>
       </c>
       <c r="F5" t="n">
-        <v>40.60327984799878</v>
+        <v>40.60327984799839</v>
       </c>
       <c r="G5" t="n">
-        <v>27.93839475630081</v>
+        <v>27.9383947563004</v>
       </c>
       <c r="H5" t="n">
-        <v>27.93839475630081</v>
+        <v>27.9383947563004</v>
       </c>
       <c r="I5" t="n">
-        <v>27.93839475630081</v>
+        <v>27.9383947563004</v>
       </c>
       <c r="J5" t="n">
-        <v>80.99020340874745</v>
+        <v>80.99020340874591</v>
       </c>
       <c r="K5" t="n">
-        <v>211.2396305620568</v>
+        <v>211.239630562053</v>
       </c>
       <c r="L5" t="n">
-        <v>409.7273242458726</v>
+        <v>409.7273242458655</v>
       </c>
       <c r="M5" t="n">
-        <v>662.252565397392</v>
+        <v>662.2525653973817</v>
       </c>
       <c r="N5" t="n">
-        <v>923.4777373365872</v>
+        <v>923.4777373365739</v>
       </c>
       <c r="O5" t="n">
-        <v>1156.809998477548</v>
+        <v>1156.809998477532</v>
       </c>
       <c r="P5" t="n">
-        <v>1321.452684169752</v>
+        <v>1321.452684169733</v>
       </c>
       <c r="Q5" t="n">
-        <v>1396.919737815041</v>
+        <v>1396.91973781502</v>
       </c>
       <c r="R5" t="n">
-        <v>1396.919737815041</v>
+        <v>1396.91973781502</v>
       </c>
       <c r="S5" t="n">
-        <v>1396.919737815041</v>
+        <v>1396.91973781502</v>
       </c>
       <c r="T5" t="n">
-        <v>1396.919737815041</v>
+        <v>1396.91973781502</v>
       </c>
       <c r="U5" t="n">
-        <v>1143.258633970709</v>
+        <v>1396.91973781502</v>
       </c>
       <c r="V5" t="n">
-        <v>812.1957466271384</v>
+        <v>1065.856850471449</v>
       </c>
       <c r="W5" t="n">
-        <v>459.4382370778857</v>
+        <v>1065.856850471449</v>
       </c>
       <c r="X5" t="n">
-        <v>459.4382370778857</v>
+        <v>1065.856850471449</v>
       </c>
       <c r="Y5" t="n">
-        <v>459.4382370778857</v>
+        <v>1065.856850471449</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>597.8050993289488</v>
+        <v>926.425332374607</v>
       </c>
       <c r="C6" t="n">
-        <v>423.3520700478218</v>
+        <v>751.97230309348</v>
       </c>
       <c r="D6" t="n">
-        <v>423.3520700478218</v>
+        <v>603.0378934322288</v>
       </c>
       <c r="E6" t="n">
-        <v>264.1146150423663</v>
+        <v>443.8004384267733</v>
       </c>
       <c r="F6" t="n">
-        <v>264.1146150423663</v>
+        <v>297.2658804536583</v>
       </c>
       <c r="G6" t="n">
-        <v>126.8778690015302</v>
+        <v>160.0291344128222</v>
       </c>
       <c r="H6" t="n">
-        <v>27.93839475630081</v>
+        <v>66.79713308377109</v>
       </c>
       <c r="I6" t="n">
-        <v>27.93839475630081</v>
+        <v>27.9383947563004</v>
       </c>
       <c r="J6" t="n">
-        <v>40.71784159143193</v>
+        <v>40.71784159143066</v>
       </c>
       <c r="K6" t="n">
-        <v>332.4282120100621</v>
+        <v>140.7147764379369</v>
       </c>
       <c r="L6" t="n">
-        <v>513.2089724545763</v>
+        <v>374.7065044384317</v>
       </c>
       <c r="M6" t="n">
-        <v>743.5284611879902</v>
+        <v>605.0259931718432</v>
       </c>
       <c r="N6" t="n">
-        <v>994.3524663668968</v>
+        <v>855.8499983507475</v>
       </c>
       <c r="O6" t="n">
-        <v>1201.587633459982</v>
+        <v>1201.587633459965</v>
       </c>
       <c r="P6" t="n">
-        <v>1348.579058983968</v>
+        <v>1348.579058983949</v>
       </c>
       <c r="Q6" t="n">
-        <v>1396.919737815041</v>
+        <v>1396.91973781502</v>
       </c>
       <c r="R6" t="n">
-        <v>1388.514189308362</v>
+        <v>1388.514189308341</v>
       </c>
       <c r="S6" t="n">
-        <v>1242.848713880446</v>
+        <v>1388.514189308341</v>
       </c>
       <c r="T6" t="n">
-        <v>1059.893956262683</v>
+        <v>1388.514189308341</v>
       </c>
       <c r="U6" t="n">
-        <v>1059.893956262683</v>
+        <v>1388.514189308341</v>
       </c>
       <c r="V6" t="n">
-        <v>1059.893956262683</v>
+        <v>1388.514189308341</v>
       </c>
       <c r="W6" t="n">
-        <v>805.6565995344816</v>
+        <v>1134.27683258014</v>
       </c>
       <c r="X6" t="n">
-        <v>597.8050993289488</v>
+        <v>926.425332374607</v>
       </c>
       <c r="Y6" t="n">
-        <v>597.8050993289488</v>
+        <v>926.425332374607</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>597.954455807126</v>
+        <v>202.6189524559823</v>
       </c>
       <c r="C7" t="n">
-        <v>597.954455807126</v>
+        <v>33.68276952807541</v>
       </c>
       <c r="D7" t="n">
-        <v>447.8378163947903</v>
+        <v>33.68276952807541</v>
       </c>
       <c r="E7" t="n">
-        <v>299.9247228123972</v>
+        <v>33.68276952807541</v>
       </c>
       <c r="F7" t="n">
-        <v>153.0347753144868</v>
+        <v>33.68276952807541</v>
       </c>
       <c r="G7" t="n">
-        <v>153.0347753144868</v>
+        <v>33.68276952807541</v>
       </c>
       <c r="H7" t="n">
-        <v>153.0347753144868</v>
+        <v>33.68276952807541</v>
       </c>
       <c r="I7" t="n">
-        <v>33.68276952807526</v>
+        <v>33.68276952807541</v>
       </c>
       <c r="J7" t="n">
-        <v>27.93839475630081</v>
+        <v>27.9383947563004</v>
       </c>
       <c r="K7" t="n">
-        <v>148.5233105874702</v>
+        <v>148.523310587469</v>
       </c>
       <c r="L7" t="n">
-        <v>358.3569215208663</v>
+        <v>358.3569215208638</v>
       </c>
       <c r="M7" t="n">
-        <v>589.9861665014308</v>
+        <v>589.9861665014272</v>
       </c>
       <c r="N7" t="n">
-        <v>821.5424021750293</v>
+        <v>821.5424021750244</v>
       </c>
       <c r="O7" t="n">
-        <v>1019.405768767891</v>
+        <v>1019.405768767885</v>
       </c>
       <c r="P7" t="n">
-        <v>1165.191378612038</v>
+        <v>1165.191378612031</v>
       </c>
       <c r="Q7" t="n">
-        <v>1182.690698049279</v>
+        <v>1182.690698049271</v>
       </c>
       <c r="R7" t="n">
-        <v>1059.927283950964</v>
+        <v>1182.690698049271</v>
       </c>
       <c r="S7" t="n">
-        <v>1059.927283950964</v>
+        <v>1182.690698049271</v>
       </c>
       <c r="T7" t="n">
-        <v>1059.927283950964</v>
+        <v>1182.690698049271</v>
       </c>
       <c r="U7" t="n">
-        <v>1046.736585848673</v>
+        <v>893.5478801556799</v>
       </c>
       <c r="V7" t="n">
-        <v>1046.736585848673</v>
+        <v>893.5478801556799</v>
       </c>
       <c r="W7" t="n">
-        <v>1046.736585848673</v>
+        <v>833.0495473277695</v>
       </c>
       <c r="X7" t="n">
-        <v>818.7470349506561</v>
+        <v>605.0599964297521</v>
       </c>
       <c r="Y7" t="n">
-        <v>597.954455807126</v>
+        <v>384.267417286222</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1321.266375419619</v>
+        <v>2057.32755894284</v>
       </c>
       <c r="C8" t="n">
-        <v>952.3038584792075</v>
+        <v>1688.365042002428</v>
       </c>
       <c r="D8" t="n">
-        <v>952.3038584792075</v>
+        <v>1330.099343395678</v>
       </c>
       <c r="E8" t="n">
-        <v>844.329830759459</v>
+        <v>944.3110907974335</v>
       </c>
       <c r="F8" t="n">
-        <v>837.3843300102556</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G8" t="n">
-        <v>421.6795797345444</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H8" t="n">
         <v>117.6204357321147</v>
@@ -4807,7 +4807,7 @@
         <v>187.5281822362822</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816079</v>
       </c>
       <c r="L8" t="n">
         <v>795.755353087292</v>
@@ -4831,25 +4831,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U8" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V8" t="n">
-        <v>2437.640120926625</v>
+        <v>2430.79331720392</v>
       </c>
       <c r="W8" t="n">
-        <v>2084.871465656511</v>
+        <v>2430.79331720392</v>
       </c>
       <c r="X8" t="n">
-        <v>1711.405707395431</v>
+        <v>2057.32755894284</v>
       </c>
       <c r="Y8" t="n">
-        <v>1321.266375419619</v>
+        <v>2057.32755894284</v>
       </c>
     </row>
     <row r="9">
@@ -4883,25 +4883,25 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310613</v>
+        <v>684.9695361605188</v>
       </c>
       <c r="L9" t="n">
-        <v>593.0223835625329</v>
+        <v>979.6730931919905</v>
       </c>
       <c r="M9" t="n">
-        <v>956.284402521753</v>
+        <v>1342.93511215121</v>
       </c>
       <c r="N9" t="n">
-        <v>1590.463386300791</v>
+        <v>1730.220240748155</v>
       </c>
       <c r="O9" t="n">
-        <v>2199.840679460312</v>
+        <v>2062.290675924317</v>
       </c>
       <c r="P9" t="n">
-        <v>2447.023413292609</v>
+        <v>2309.473409756614</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>347.89877828689</v>
+        <v>1006.01552520271</v>
       </c>
       <c r="C10" t="n">
-        <v>347.89877828689</v>
+        <v>837.079342274803</v>
       </c>
       <c r="D10" t="n">
-        <v>347.89877828689</v>
+        <v>686.9627028624673</v>
       </c>
       <c r="E10" t="n">
-        <v>199.9856847044969</v>
+        <v>539.0496092800742</v>
       </c>
       <c r="F10" t="n">
-        <v>199.9856847044969</v>
+        <v>392.1596617821638</v>
       </c>
       <c r="G10" t="n">
-        <v>199.9856847044969</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H10" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I10" t="n">
         <v>51.2467865680031</v>
@@ -4986,28 +4986,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1310.884232784815</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1021.765895288652</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V10" t="n">
-        <v>767.0814070827656</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W10" t="n">
-        <v>477.664237045805</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="X10" t="n">
-        <v>347.89877828689</v>
+        <v>1408.45656917648</v>
       </c>
       <c r="Y10" t="n">
-        <v>347.89877828689</v>
+        <v>1187.66399003295</v>
       </c>
     </row>
     <row r="11">
@@ -5120,28 +5120,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1186.520756890282</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N12" t="n">
-        <v>1814.118720444889</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>763.7541388327643</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="C13" t="n">
-        <v>594.8179559048574</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="D13" t="n">
-        <v>594.8179559048574</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E13" t="n">
-        <v>446.9048623224643</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
-        <v>446.9048623224643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>279.7087630373442</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5284,13 +5284,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5360,25 +5360,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1965.532750177311</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2517.442480416598</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2517.442480416598</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2517.442480416598</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>789.7592298206043</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>620.8230468926974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>470.7064074803617</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>322.7933138979686</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>175.9033664000583</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000583</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5469,19 +5469,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1964.291482935239</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1709.606994729352</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1420.189824692392</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1192.200273794374</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>971.4076946508441</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5500,10 +5500,10 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C18" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D18" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G18" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>2231.588527385791</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>2565.513299557012</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>3060.83890577277</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>3658.217393399322</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>4285.815356953929</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S18" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T18" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U18" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V18" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W18" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X18" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y18" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="19">
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>806.8386896933887</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>637.9025067654818</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D19" t="n">
-        <v>637.9025067654818</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E19" t="n">
-        <v>489.9894131830887</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S19" t="n">
-        <v>2270.446169463826</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T19" t="n">
-        <v>2270.446169463826</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U19" t="n">
-        <v>1981.370942808024</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1726.686454602137</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1437.269284565176</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>1209.279733667159</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>988.4871545236284</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5749,13 +5749,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332386</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5828,25 +5828,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>949.9304447718133</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5943,19 +5943,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1729.097755135313</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5986,25 +5986,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6068,22 +6068,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637307</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1814.118720444889</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1983.7822433412</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1729.097755135313</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6217,10 +6217,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
@@ -6229,7 +6229,7 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6305,25 +6305,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1814.118720444889</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1022.872235754091</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C28" t="n">
-        <v>853.936052826184</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="D28" t="n">
-        <v>703.8194134138482</v>
+        <v>618.4214495336224</v>
       </c>
       <c r="E28" t="n">
-        <v>555.9063198314551</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F28" t="n">
-        <v>409.0163723335447</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
         <v>317.6151975578602</v>
@@ -6414,22 +6414,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1653.302830625878</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W28" t="n">
-        <v>1653.302830625878</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X28" t="n">
-        <v>1425.313279727861</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y28" t="n">
-        <v>1204.520700584331</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="29">
@@ -6460,7 +6460,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
@@ -6469,13 +6469,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6539,28 +6539,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>924.8344286397182</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1522.21291626627</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1896.176478190825</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>948.5505208511906</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C31" t="n">
-        <v>779.6143379232838</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232838</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
         <v>484.8112968429803</v>
@@ -6654,19 +6654,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1833.665603928865</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1578.981115722978</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1578.981115722978</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1350.99156482496</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1130.19898568143</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6697,16 +6697,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014778</v>
@@ -6715,7 +6715,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6782,22 +6782,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>840.8417932021785</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1468.439756756785</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3093.254426444652</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>2924.318243516745</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>2774.20160410441</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>2626.288510522017</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>2479.398563024106</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>2479.398563024106</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>3677.571434467152</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>3542.0365564862</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>3314.047005588182</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>3093.254426444652</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6916,7 +6916,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6925,61 +6925,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,31 +7010,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>119.2902967703784</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>119.2902967703784</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>119.2902967703784</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>716.6687843969303</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951537</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>931.4710609784063</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>762.5348780504994</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D37" t="n">
-        <v>612.4182386381636</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E37" t="n">
-        <v>464.5051450557705</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F37" t="n">
-        <v>317.6151975578601</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1561.901655850193</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1333.912104952176</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1113.119525808646</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7168,16 +7168,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7186,28 +7186,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
         <v>3820.749612123003</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,28 +7247,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>352.5519571452613</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>949.9304447718132</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>869.6905094135296</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>700.7543264856228</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>550.637687073287</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1144.284195611859</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1051.338974243769</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7390,7 +7390,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7399,61 +7399,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111729</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,31 +7484,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>119.290296770379</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263527</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356195</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232838</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578603</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U43" t="n">
-        <v>2044.506784258106</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V43" t="n">
-        <v>1789.822296052219</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W43" t="n">
-        <v>1500.405126015258</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X43" t="n">
-        <v>1319.459739407057</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y43" t="n">
-        <v>1098.667160263527</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="44">
@@ -7645,31 +7645,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7727,25 +7727,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>175.8744207939072</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>671.2000270096659</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1268.578514636218</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1896.176478190825</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3044.370838283061</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>3044.370838283061</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>3023.484406741616</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>2875.571313159223</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>2728.681365661313</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>4507.978318053498</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>4507.978318053498</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>4218.903091397696</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>3964.218603191809</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>3674.801433154848</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>3446.811882256831</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>3226.019303113301</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265839</v>
+        <v>15.37922103265835</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8139,22 +8139,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>97.07800166347174</v>
+        <v>42.5627518647109</v>
       </c>
       <c r="L4" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>171.4142040457085</v>
       </c>
       <c r="N4" t="n">
-        <v>163.8604018711116</v>
+        <v>163.8604018711117</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
-        <v>135.0065633140411</v>
+        <v>18.10760906709382</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>41.92993463898841</v>
+        <v>41.92993463898952</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8297,10 +8297,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>193.6499349213359</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>53.7484520767502</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8309,7 +8309,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>139.9014828445798</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8543,16 +8543,16 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>249.3877325071649</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>280.1079373569282</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>138.9393975111062</v>
       </c>
       <c r="R9" t="n">
         <v>20.93778120154991</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -23415,25 +23415,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>116.6691671648112</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>37.52737017531081</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>273.1465727897277</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23898,19 +23898,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S19" t="n">
-        <v>72.64978773649588</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24183,13 +24183,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>6.257951202385186</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24369,19 +24369,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24414,19 +24414,19 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>111.4161395899842</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24603,19 +24603,19 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>14.15991148283342</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>75.03697526434117</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24654,16 +24654,16 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24846,10 +24846,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24894,13 +24894,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>143.8269525734169</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25134,10 +25134,10 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="W34" t="n">
-        <v>152.3434691354477</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25314,19 +25314,19 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25374,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>166.0397529241844</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25554,10 +25554,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>126.5688841976862</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25797,16 +25797,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>46.45968844823099</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>46.57372264691747</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26025,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>127.9379057921815</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>717995.9386713394</v>
+        <v>717995.9386713393</v>
       </c>
     </row>
     <row r="4">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>698883.433001764</v>
+        <v>698883.4330017639</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>698883.433001764</v>
+        <v>698883.4330017639</v>
       </c>
     </row>
     <row r="10">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>698883.4330017641</v>
+        <v>698883.4330017639</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>698883.433001764</v>
+        <v>698883.4330017639</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>738937.5928778551</v>
+        <v>738937.5928778549</v>
       </c>
       <c r="C2" t="n">
-        <v>738937.5928778553</v>
+        <v>738937.5928778555</v>
       </c>
       <c r="D2" t="n">
-        <v>738937.5928778545</v>
+        <v>738937.5928778546</v>
       </c>
       <c r="E2" t="n">
+        <v>726431.9397210054</v>
+      </c>
+      <c r="F2" t="n">
         <v>726431.9397210052</v>
-      </c>
-      <c r="F2" t="n">
-        <v>726431.9397210055</v>
       </c>
       <c r="G2" t="n">
         <v>726431.9397210053</v>
       </c>
       <c r="H2" t="n">
-        <v>726431.9397210055</v>
+        <v>726431.9397210052</v>
       </c>
       <c r="I2" t="n">
+        <v>726431.9397210052</v>
+      </c>
+      <c r="J2" t="n">
         <v>726431.9397210054</v>
       </c>
-      <c r="J2" t="n">
-        <v>726431.9397210056</v>
-      </c>
       <c r="K2" t="n">
-        <v>726431.9397210055</v>
+        <v>726431.9397210052</v>
       </c>
       <c r="L2" t="n">
+        <v>726431.9397210053</v>
+      </c>
+      <c r="M2" t="n">
         <v>726431.9397210054</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
+        <v>726431.9397210052</v>
+      </c>
+      <c r="O2" t="n">
         <v>726431.9397210053</v>
       </c>
-      <c r="N2" t="n">
-        <v>726431.9397210054</v>
-      </c>
-      <c r="O2" t="n">
-        <v>726431.9397210057</v>
-      </c>
       <c r="P2" t="n">
-        <v>726431.9397210054</v>
+        <v>726431.9397210053</v>
       </c>
     </row>
     <row r="3">
@@ -26365,13 +26365,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208454</v>
+        <v>591356.9025208456</v>
       </c>
       <c r="C3" t="n">
-        <v>178997.5061427167</v>
+        <v>178997.5061427109</v>
       </c>
       <c r="D3" t="n">
-        <v>301519.870773116</v>
+        <v>301519.8707731212</v>
       </c>
       <c r="E3" t="n">
         <v>507485.441624546</v>
@@ -26386,19 +26386,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854442</v>
+        <v>49064.94472854465</v>
       </c>
       <c r="K3" t="n">
-        <v>41617.52445267394</v>
+        <v>41617.52445267256</v>
       </c>
       <c r="L3" t="n">
-        <v>73739.30240019446</v>
+        <v>73739.30240019559</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289268</v>
+        <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,10 +26417,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>277470.8484307132</v>
+        <v>277470.8484307131</v>
       </c>
       <c r="C4" t="n">
-        <v>229588.1389806955</v>
+        <v>229588.138980697</v>
       </c>
       <c r="D4" t="n">
         <v>145155.2306979383</v>
@@ -26429,7 +26429,7 @@
         <v>13606.80811184274</v>
       </c>
       <c r="F4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="G4" t="n">
         <v>13606.80811184274</v>
@@ -26438,7 +26438,7 @@
         <v>13606.80811184274</v>
       </c>
       <c r="I4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="J4" t="n">
         <v>13606.80811184274</v>
@@ -26447,19 +26447,19 @@
         <v>13606.80811184274</v>
       </c>
       <c r="L4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="M4" t="n">
         <v>13606.80811184275</v>
       </c>
       <c r="N4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="O4" t="n">
-        <v>13606.80811184281</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="P4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
     </row>
     <row r="5">
@@ -26469,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161357</v>
+        <v>56985.80041161359</v>
       </c>
       <c r="C5" t="n">
-        <v>69851.97930029214</v>
+        <v>69851.97930029173</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-186875.9584853171</v>
+        <v>-186875.9584853174</v>
       </c>
       <c r="C6" t="n">
-        <v>260499.9684541509</v>
+        <v>260499.968454156</v>
       </c>
       <c r="D6" t="n">
-        <v>199324.7189669555</v>
+        <v>199324.7189669504</v>
       </c>
       <c r="E6" t="n">
-        <v>104217.1601607093</v>
+        <v>103869.7809063526</v>
       </c>
       <c r="F6" t="n">
-        <v>611702.6017852557</v>
+        <v>611355.2225308984</v>
       </c>
       <c r="G6" t="n">
-        <v>611702.6017852555</v>
+        <v>611355.2225308985</v>
       </c>
       <c r="H6" t="n">
-        <v>611702.6017852557</v>
+        <v>611355.2225308984</v>
       </c>
       <c r="I6" t="n">
-        <v>611702.6017852555</v>
+        <v>611355.2225308984</v>
       </c>
       <c r="J6" t="n">
-        <v>562637.6570567114</v>
+        <v>562290.277802354</v>
       </c>
       <c r="K6" t="n">
-        <v>570085.0773325817</v>
+        <v>569737.6980782258</v>
       </c>
       <c r="L6" t="n">
-        <v>537963.2993850611</v>
+        <v>537615.9201307029</v>
       </c>
       <c r="M6" t="n">
-        <v>479095.3080563286</v>
+        <v>478747.9288019719</v>
       </c>
       <c r="N6" t="n">
-        <v>611702.6017852556</v>
+        <v>611355.2225308984</v>
       </c>
       <c r="O6" t="n">
-        <v>611702.6017852558</v>
+        <v>611355.2225308985</v>
       </c>
       <c r="P6" t="n">
-        <v>611702.6017852556</v>
+        <v>611355.2225308985</v>
       </c>
     </row>
   </sheetData>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129046</v>
+        <v>548.4699409129048</v>
       </c>
       <c r="C3" t="n">
-        <v>687.6696919955742</v>
+        <v>687.6696919955699</v>
       </c>
       <c r="D3" t="n">
         <v>934.0648921175391</v>
@@ -26789,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="C4" t="n">
-        <v>349.2299344537602</v>
+        <v>349.229934453755</v>
       </c>
       <c r="D4" t="n">
         <v>640.5848321000387</v>
@@ -26822,13 +26822,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26959,13 +26959,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129046</v>
+        <v>548.4699409129048</v>
       </c>
       <c r="C3" t="n">
-        <v>139.1997510826696</v>
+        <v>139.1997510826651</v>
       </c>
       <c r="D3" t="n">
-        <v>246.3952001219649</v>
+        <v>246.3952001219692</v>
       </c>
       <c r="E3" t="n">
         <v>433.9106082241346</v>
@@ -26980,16 +26980,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26998,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27011,13 +27011,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="C4" t="n">
-        <v>161.7043472874403</v>
+        <v>161.704347287435</v>
       </c>
       <c r="D4" t="n">
-        <v>291.3548976462786</v>
+        <v>291.3548976462837</v>
       </c>
       <c r="E4" t="n">
         <v>532.1234559996096</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="K4" t="n">
-        <v>161.7043472874403</v>
+        <v>161.704347287435</v>
       </c>
       <c r="L4" t="n">
-        <v>291.3548976462786</v>
+        <v>291.3548976462837</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996099</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,13 +27257,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="K4" t="n">
-        <v>161.7043472874403</v>
+        <v>161.704347287435</v>
       </c>
       <c r="L4" t="n">
-        <v>291.3548976462786</v>
+        <v>291.3548976462837</v>
       </c>
       <c r="M4" t="n">
         <v>532.1234559996096</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>220.1507086265702</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27387,19 +27387,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>194.4047829059419</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>349.7903508530058</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>225.572246063738</v>
       </c>
       <c r="H2" t="n">
         <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27435,7 +27435,7 @@
         <v>213.4438810562068</v>
       </c>
       <c r="U2" t="n">
-        <v>63.64367339871047</v>
+        <v>63.64367339871027</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27457,19 +27457,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>136.1637893657753</v>
@@ -27505,28 +27505,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>26.91122581714238</v>
+        <v>26.91122581714234</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920013</v>
+        <v>195.4095977920012</v>
       </c>
       <c r="U3" t="n">
         <v>225.8637684100909</v>
       </c>
       <c r="V3" t="n">
-        <v>45.2749999831054</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>202.5346060566642</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>171.0440375159789</v>
       </c>
     </row>
     <row r="4">
@@ -27542,10 +27542,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27554,13 +27554,13 @@
         <v>167.0019352027142</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I4" t="n">
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>23.43375830553084</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.343082173845801</v>
+        <v>3.343082173845758</v>
       </c>
       <c r="R4" t="n">
         <v>132.8223696106904</v>
@@ -27596,16 +27596,16 @@
         <v>286.2650814934503</v>
       </c>
       <c r="V4" t="n">
-        <v>64.61205615750814</v>
+        <v>64.61205615750794</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>144.7842194660271</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>38.18406822271709</v>
       </c>
       <c r="Y4" t="n">
-        <v>126.8440483399617</v>
+        <v>31.05906618577472</v>
       </c>
     </row>
     <row r="5">
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>33.50390720972041</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>5.453107166927907</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>32.70043561850673</v>
       </c>
       <c r="F5" t="n">
-        <v>341.4593725378835</v>
+        <v>90.33487973200511</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>311.1628534397886</v>
+        <v>311.1628534397888</v>
       </c>
       <c r="I5" t="n">
-        <v>103.8974541908707</v>
+        <v>103.8974541908714</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,19 +27666,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>146.023996796902</v>
+        <v>146.0239967969024</v>
       </c>
       <c r="T5" t="n">
-        <v>210.9942452356464</v>
+        <v>210.9942452356465</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1244928058882</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0.01103426365284577</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27700,22 +27700,22 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>5.650398187016577</v>
       </c>
       <c r="I6" t="n">
-        <v>38.47015094419566</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27745,10 +27745,10 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>144.2088206736375</v>
       </c>
       <c r="T6" t="n">
-        <v>13.07755217263369</v>
+        <v>194.2027622142185</v>
       </c>
       <c r="U6" t="n">
         <v>225.8440703321075</v>
@@ -27773,19 +27773,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.7509192581389</v>
@@ -27794,7 +27794,7 @@
         <v>151.2019108882319</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>118.1584857285477</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,22 +27821,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>121.535779957332</v>
       </c>
       <c r="S7" t="n">
-        <v>202.4057324704884</v>
+        <v>202.4057324704885</v>
       </c>
       <c r="T7" t="n">
         <v>222.6471508178238</v>
       </c>
       <c r="U7" t="n">
-        <v>273.1925985933876</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>226.6296488369597</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27858,19 +27858,19 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>275.0360826297108</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
@@ -27912,16 +27912,16 @@
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>197.521707385862</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28010,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>80.85095794181458</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>97.24185121771134</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31044,46 +31044,46 @@
         <v>2.204904285077002</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954485</v>
+        <v>22.58097600954486</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043118</v>
+        <v>85.00457245043123</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655543</v>
+        <v>187.1384950655544</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528639</v>
+        <v>280.472093452864</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672893</v>
+        <v>347.9504329672894</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470274</v>
+        <v>387.1618995470275</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470024</v>
+        <v>393.4265838470026</v>
       </c>
       <c r="O2" t="n">
-        <v>371.501566862268</v>
+        <v>371.5015668622681</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244294</v>
+        <v>317.0679923244296</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151092</v>
+        <v>238.1048576151093</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974683</v>
+        <v>138.5038187974684</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619223</v>
+        <v>50.24425639619225</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924579</v>
+        <v>9.651968507924584</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1763923428061601</v>
+        <v>0.1763923428061602</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,13 +31120,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.179727797435304</v>
+        <v>1.179727797435305</v>
       </c>
       <c r="H3" t="n">
         <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>40.6178210959085</v>
+        <v>40.61782109590852</v>
       </c>
       <c r="J3" t="n">
         <v>111.4584056340083</v>
@@ -31135,34 +31135,34 @@
         <v>190.5001680621737</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405032</v>
+        <v>256.1509851405033</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975329</v>
+        <v>298.9161177975331</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829654</v>
+        <v>306.8275379829655</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292673</v>
+        <v>280.6872536292674</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628872</v>
+        <v>225.2762668628873</v>
       </c>
       <c r="Q3" t="n">
         <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550075</v>
+        <v>73.2466083355008</v>
       </c>
       <c r="S3" t="n">
-        <v>21.9129264128882</v>
+        <v>21.91292641288821</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820369</v>
+        <v>4.755130902820371</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390163</v>
+        <v>0.07761367088390166</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445819</v>
+        <v>0.9890441557445823</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620016</v>
+        <v>8.793501675620019</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639162</v>
+        <v>29.74325515639163</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114193</v>
+        <v>69.92542181114197</v>
       </c>
       <c r="K4" t="n">
         <v>114.9089482765069</v>
@@ -31223,25 +31223,25 @@
         <v>151.3507297604415</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592433</v>
+        <v>139.7968957592434</v>
       </c>
       <c r="P4" t="n">
         <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784858</v>
+        <v>82.81896107784863</v>
       </c>
       <c r="R4" t="n">
-        <v>44.4710217664791</v>
+        <v>44.47102176647912</v>
       </c>
       <c r="S4" t="n">
         <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181394</v>
+        <v>4.225915938181396</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061362</v>
+        <v>0.05394786304061364</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.764501274354065</v>
+        <v>2.764501274354048</v>
       </c>
       <c r="H5" t="n">
-        <v>28.31194867597858</v>
+        <v>28.3119486759784</v>
       </c>
       <c r="I5" t="n">
-        <v>106.5784353795352</v>
+        <v>106.5784353795345</v>
       </c>
       <c r="J5" t="n">
-        <v>234.6335900342085</v>
+        <v>234.6335900342071</v>
       </c>
       <c r="K5" t="n">
-        <v>351.6549289776162</v>
+        <v>351.654928977614</v>
       </c>
       <c r="L5" t="n">
-        <v>436.2590348526295</v>
+        <v>436.2590348526268</v>
       </c>
       <c r="M5" t="n">
-        <v>485.4222343904236</v>
+        <v>485.4222343904206</v>
       </c>
       <c r="N5" t="n">
-        <v>493.2768736361821</v>
+        <v>493.276873636179</v>
       </c>
       <c r="O5" t="n">
-        <v>465.7873640893238</v>
+        <v>465.7873640893209</v>
       </c>
       <c r="P5" t="n">
-        <v>397.5387388787078</v>
+        <v>397.5387388787053</v>
       </c>
       <c r="Q5" t="n">
-        <v>298.5350369909028</v>
+        <v>298.5350369909009</v>
       </c>
       <c r="R5" t="n">
-        <v>173.6556031751437</v>
+        <v>173.6556031751426</v>
       </c>
       <c r="S5" t="n">
-        <v>62.99607278934332</v>
+        <v>62.99607278934293</v>
       </c>
       <c r="T5" t="n">
-        <v>12.10160432848493</v>
+        <v>12.10160432848485</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2211601019483252</v>
+        <v>0.2211601019483238</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.479138582782933</v>
+        <v>1.479138582782924</v>
       </c>
       <c r="H6" t="n">
-        <v>14.28536473371938</v>
+        <v>14.28536473371929</v>
       </c>
       <c r="I6" t="n">
-        <v>50.92648190721942</v>
+        <v>50.9264819072191</v>
       </c>
       <c r="J6" t="n">
-        <v>139.7461588233648</v>
+        <v>139.7461588233639</v>
       </c>
       <c r="K6" t="n">
-        <v>238.8484438698213</v>
+        <v>238.8484438698198</v>
       </c>
       <c r="L6" t="n">
-        <v>321.1612085117067</v>
+        <v>321.1612085117046</v>
       </c>
       <c r="M6" t="n">
-        <v>374.7799821375879</v>
+        <v>374.7799821375855</v>
       </c>
       <c r="N6" t="n">
-        <v>384.6992930721279</v>
+        <v>384.6992930721255</v>
       </c>
       <c r="O6" t="n">
-        <v>351.9246960536219</v>
+        <v>351.9246960536196</v>
       </c>
       <c r="P6" t="n">
-        <v>282.4505948122954</v>
+        <v>282.4505948122936</v>
       </c>
       <c r="Q6" t="n">
-        <v>188.8107426022565</v>
+        <v>188.8107426022554</v>
       </c>
       <c r="R6" t="n">
-        <v>91.83634113103163</v>
+        <v>91.83634113103105</v>
       </c>
       <c r="S6" t="n">
-        <v>27.47435043020052</v>
+        <v>27.47435043020035</v>
       </c>
       <c r="T6" t="n">
-        <v>5.961966480603137</v>
+        <v>5.961966480603099</v>
       </c>
       <c r="U6" t="n">
-        <v>0.09731174886729828</v>
+        <v>0.09731174886729767</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.240060100319888</v>
+        <v>1.24006010031988</v>
       </c>
       <c r="H7" t="n">
-        <v>11.02526161920774</v>
+        <v>11.02526161920767</v>
       </c>
       <c r="I7" t="n">
-        <v>37.29198919871082</v>
+        <v>37.29198919871059</v>
       </c>
       <c r="J7" t="n">
-        <v>87.67224909261607</v>
+        <v>87.67224909261552</v>
       </c>
       <c r="K7" t="n">
-        <v>144.0724371098924</v>
+        <v>144.0724371098915</v>
       </c>
       <c r="L7" t="n">
-        <v>184.3631170966495</v>
+        <v>184.3631170966484</v>
       </c>
       <c r="M7" t="n">
-        <v>194.385057361962</v>
+        <v>194.3850573619608</v>
       </c>
       <c r="N7" t="n">
-        <v>189.7630151698608</v>
+        <v>189.7630151698596</v>
       </c>
       <c r="O7" t="n">
-        <v>175.2768585433966</v>
+        <v>175.2768585433955</v>
       </c>
       <c r="P7" t="n">
-        <v>149.9796324968707</v>
+        <v>149.9796324968698</v>
       </c>
       <c r="Q7" t="n">
-        <v>103.8381234913317</v>
+        <v>103.838123491331</v>
       </c>
       <c r="R7" t="n">
-        <v>55.75761141983785</v>
+        <v>55.7576114198375</v>
       </c>
       <c r="S7" t="n">
-        <v>21.61086556648386</v>
+        <v>21.61086556648372</v>
       </c>
       <c r="T7" t="n">
-        <v>5.298438610457701</v>
+        <v>5.298438610457668</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06763964183563033</v>
+        <v>0.0676396418356299</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31840,31 +31840,31 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>575.5951359912046</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>188.4731159523455</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32080,7 +32080,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
@@ -32092,7 +32092,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32101,7 +32101,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>181.6580975439405</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32311,10 +32311,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
@@ -32329,13 +32329,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>316.0872899694772</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32548,7 +32548,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32557,19 +32557,19 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>513.0745614164389</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,34 +32779,34 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>461.1007071927452</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33025,10 +33025,10 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33040,13 +33040,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>653.3850396373771</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33259,10 +33259,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
@@ -33274,16 +33274,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>509.0826837242976</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33502,37 +33502,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>250.1723312270667</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>152.5685698206127</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,34 +33964,34 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>399.9031616963282</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34210,13 +34210,13 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>163.5723821283055</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34225,13 +34225,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34447,10 +34447,10 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>220.7280629601522</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34462,13 +34462,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868052</v>
+        <v>6.092590538868137</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788333</v>
+        <v>60.38224240788344</v>
       </c>
       <c r="L2" t="n">
-        <v>112.184017997302</v>
+        <v>112.1840179973021</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197546</v>
+        <v>156.8156663197548</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504115</v>
+        <v>164.0135202504117</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405812</v>
+        <v>141.4033554405814</v>
       </c>
       <c r="P2" t="n">
-        <v>85.8349965691599</v>
+        <v>85.83499656916001</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065975</v>
+        <v>15.79916774065984</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781469</v>
+        <v>52.65872908781475</v>
       </c>
       <c r="L3" t="n">
-        <v>117.596605360629</v>
+        <v>117.5966053606292</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755146</v>
+        <v>156.7820838755148</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996321</v>
+        <v>175.4858258996322</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848229</v>
+        <v>138.091009184823</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855694</v>
+        <v>91.30185944855702</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764996</v>
+        <v>10.60944440765002</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,22 +34859,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>82.97369176944322</v>
+        <v>28.45844197068243</v>
       </c>
       <c r="L4" t="n">
-        <v>174.6339172880152</v>
+        <v>174.6339172880153</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061152</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="N4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="O4" t="n">
         <v>164.382023673283</v>
       </c>
       <c r="P4" t="n">
-        <v>116.8989542469472</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>53.58768550752225</v>
+        <v>53.5876855075208</v>
       </c>
       <c r="K5" t="n">
-        <v>131.5650779326356</v>
+        <v>131.5650779326334</v>
       </c>
       <c r="L5" t="n">
-        <v>200.4926198826423</v>
+        <v>200.4926198826395</v>
       </c>
       <c r="M5" t="n">
-        <v>255.0760011631508</v>
+        <v>255.0760011631478</v>
       </c>
       <c r="N5" t="n">
-        <v>263.8638100395912</v>
+        <v>263.8638100395881</v>
       </c>
       <c r="O5" t="n">
-        <v>235.6891526676371</v>
+        <v>235.6891526676342</v>
       </c>
       <c r="P5" t="n">
-        <v>166.3057431234383</v>
+        <v>166.3057431234358</v>
       </c>
       <c r="Q5" t="n">
-        <v>76.22934711645328</v>
+        <v>76.22934711645141</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>12.9085321566981</v>
+        <v>12.90853215669722</v>
       </c>
       <c r="K6" t="n">
-        <v>294.6569398167982</v>
+        <v>101.0070048954608</v>
       </c>
       <c r="L6" t="n">
-        <v>182.6068287318325</v>
+        <v>236.3552808085806</v>
       </c>
       <c r="M6" t="n">
-        <v>232.6459482155696</v>
+        <v>232.6459482155672</v>
       </c>
       <c r="N6" t="n">
-        <v>253.3575809887946</v>
+        <v>253.3575809887922</v>
       </c>
       <c r="O6" t="n">
-        <v>209.3284516091774</v>
+        <v>349.229934453755</v>
       </c>
       <c r="P6" t="n">
-        <v>148.4761873979652</v>
+        <v>148.4761873979634</v>
       </c>
       <c r="Q6" t="n">
-        <v>48.82896851623502</v>
+        <v>48.82896851623386</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,25 +35096,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>121.8029452840095</v>
+        <v>121.8029452840086</v>
       </c>
       <c r="L7" t="n">
-        <v>211.9531423569657</v>
+        <v>211.9531423569645</v>
       </c>
       <c r="M7" t="n">
-        <v>233.9689343238026</v>
+        <v>233.9689343238014</v>
       </c>
       <c r="N7" t="n">
-        <v>233.8951875490894</v>
+        <v>233.8951875490882</v>
       </c>
       <c r="O7" t="n">
-        <v>199.8619864574362</v>
+        <v>199.8619864574351</v>
       </c>
       <c r="P7" t="n">
-        <v>147.2581917617642</v>
+        <v>147.2581917617633</v>
       </c>
       <c r="Q7" t="n">
-        <v>17.67608023963732</v>
+        <v>17.67608023963666</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35251,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
         <v>297.6803606378501</v>
@@ -35263,16 +35263,16 @@
         <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
-        <v>640.5848321000387</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>615.5326193530511</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
         <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308545</v>
+        <v>255.4201198419607</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>433.4611020691863</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>45.87687150790109</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35728,7 +35728,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
@@ -35740,7 +35740,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35749,7 +35749,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>35.9785935799765</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35959,10 +35959,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
@@ -35977,13 +35977,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>173.4910455250327</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,19 +36205,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>374.5201816365647</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,25 +36436,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>318.5044627483008</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36673,10 +36673,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36688,13 +36688,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>510.7887951929326</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36907,10 +36907,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
@@ -36922,16 +36922,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>377.7409716409642</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,25 +37150,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>25.73094315394598</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,25 +37621,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>261.348781916454</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37779,7 +37779,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396434</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
         <v>479.454324036777</v>
@@ -37858,13 +37858,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>25.73094315394655</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37873,13 +37873,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38095,10 +38095,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>82.88662398579324</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38110,13 +38110,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_21_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_21_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3282594.25782501</v>
+        <v>3284354.788127796</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -664,22 +664,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>169.4591787786224</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>57.08569488870565</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="G2" t="n">
-        <v>187.5255871663201</v>
+        <v>13.09783323005805</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -715,13 +715,13 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
         <v>187.5255871663201</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>48.77881175550655</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -794,7 +794,7 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>83.41747001683237</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -806,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>34.63865826132552</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -828,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>3.343082173845758</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -876,10 +876,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>141.7387788705639</v>
+        <v>0.668255658169752</v>
       </c>
       <c r="X4" t="n">
         <v>187.5255871663201</v>
@@ -898,16 +898,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>349.2299344537556</v>
       </c>
       <c r="D5" t="n">
-        <v>349.229934453755</v>
+        <v>309.6651202679959</v>
       </c>
       <c r="E5" t="n">
-        <v>349.229934453755</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>316.5411660097063</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>12.538236240781</v>
@@ -958,7 +958,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.2299344537556</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -989,13 +989,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>135.8643785804277</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>92.29968131576059</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>38.47015094419598</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>8.321493021612085</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1034,7 +1034,7 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>108.422520212131</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -1059,13 +1059,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>5.686931024057259</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1110,13 +1110,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2513897146553</v>
+        <v>57.79514919720064</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>59.89334949963131</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>297.1787180929307</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1192,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>130.2305510842729</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1305,13 +1305,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>85.4556421029896</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>50.98074812542853</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1527,16 +1527,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>63.1628130171261</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>103.2360561910032</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1615,7 +1615,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722623</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1770,19 +1770,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>55.52079624060465</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2010,7 +2010,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2019,7 +2019,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2058,7 +2058,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>222.8161206669571</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2256,10 +2256,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712588</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2332,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2414,7 +2414,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H24" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2493,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>1.79977260571614</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187857</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2651,7 +2651,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H27" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2715,13 +2715,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>132.2740511637357</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2772,7 +2772,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634788</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2888,7 +2888,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H30" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>41.33703994142957</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881277</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3125,7 +3125,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H33" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3204,10 +3204,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>68.17501931583776</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3246,7 +3246,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>194.9085394018857</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3268,7 +3268,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3362,7 +3362,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3426,7 +3426,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3599,7 +3599,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3672,16 +3672,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="H40" t="n">
-        <v>1.79977260571614</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3754,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3836,7 +3836,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3900,25 +3900,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>95.12712756824166</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>170.9457618790573</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3988,7 +3988,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417105</v>
       </c>
       <c r="G44" t="n">
         <v>409.8033385187866</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4073,7 +4073,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4149,10 +4149,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>388.8228542207808</v>
+        <v>388.822854220781</v>
       </c>
       <c r="C2" t="n">
-        <v>388.8228542207808</v>
+        <v>388.822854220781</v>
       </c>
       <c r="D2" t="n">
-        <v>388.8228542207808</v>
+        <v>217.6519665656068</v>
       </c>
       <c r="E2" t="n">
-        <v>388.8228542207808</v>
+        <v>217.6519665656068</v>
       </c>
       <c r="F2" t="n">
-        <v>331.1605361513812</v>
+        <v>28.23218154912182</v>
       </c>
       <c r="G2" t="n">
-        <v>141.7407511348962</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="H2" t="n">
-        <v>141.7407511348962</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="I2" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="J2" t="n">
         <v>21.03371160678508</v>
@@ -4336,46 +4336,46 @@
         <v>80.81213159058969</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079186</v>
+        <v>191.8743094079189</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644756</v>
+        <v>347.1218190644759</v>
       </c>
       <c r="N2" t="n">
-        <v>509.495204112383</v>
+        <v>509.4952041123832</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985586</v>
+        <v>649.4845259985589</v>
       </c>
       <c r="P2" t="n">
-        <v>734.461172602027</v>
+        <v>734.4611726020272</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652803</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="R2" t="n">
-        <v>738.6222485201477</v>
+        <v>738.6222485201479</v>
       </c>
       <c r="S2" t="n">
-        <v>578.2426392372657</v>
+        <v>578.242639237266</v>
       </c>
       <c r="T2" t="n">
-        <v>578.2426392372657</v>
+        <v>578.242639237266</v>
       </c>
       <c r="U2" t="n">
-        <v>388.8228542207808</v>
+        <v>578.242639237266</v>
       </c>
       <c r="V2" t="n">
-        <v>388.8228542207808</v>
+        <v>578.242639237266</v>
       </c>
       <c r="W2" t="n">
-        <v>388.8228542207808</v>
+        <v>388.822854220781</v>
       </c>
       <c r="X2" t="n">
-        <v>388.8228542207808</v>
+        <v>388.822854220781</v>
       </c>
       <c r="Y2" t="n">
-        <v>388.8228542207808</v>
+        <v>388.822854220781</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>546.8984679469036</v>
+        <v>497.6269409211394</v>
       </c>
       <c r="C3" t="n">
-        <v>372.4454386657766</v>
+        <v>323.1739116400124</v>
       </c>
       <c r="D3" t="n">
-        <v>223.5110290045253</v>
+        <v>174.2395019787611</v>
       </c>
       <c r="E3" t="n">
-        <v>64.27357399906981</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="F3" t="n">
-        <v>64.27357399906981</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="G3" t="n">
-        <v>64.27357399906981</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="H3" t="n">
-        <v>64.27357399906981</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="I3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="J3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024222</v>
+        <v>67.13418877024219</v>
       </c>
       <c r="L3" t="n">
         <v>183.5548280772651</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140246</v>
+        <v>338.7690911140248</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546605</v>
+        <v>512.5000587546606</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476352</v>
+        <v>649.2101578476354</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017067</v>
+        <v>739.5989987017069</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652803</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652803</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="S3" t="n">
-        <v>750.1023486652803</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="T3" t="n">
-        <v>750.1023486652803</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="U3" t="n">
-        <v>750.1023486652803</v>
+        <v>665.8422779412074</v>
       </c>
       <c r="V3" t="n">
-        <v>750.1023486652803</v>
+        <v>665.8422779412074</v>
       </c>
       <c r="W3" t="n">
-        <v>750.1023486652803</v>
+        <v>665.8422779412074</v>
       </c>
       <c r="X3" t="n">
-        <v>750.1023486652803</v>
+        <v>665.8422779412074</v>
       </c>
       <c r="Y3" t="n">
-        <v>715.1138049669717</v>
+        <v>665.8422779412074</v>
       </c>
     </row>
     <row r="4">
@@ -4464,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>38.67250990818521</v>
+        <v>185.5624574060956</v>
       </c>
       <c r="C4" t="n">
-        <v>38.67250990818521</v>
+        <v>185.5624574060956</v>
       </c>
       <c r="D4" t="n">
-        <v>38.67250990818521</v>
+        <v>185.5624574060956</v>
       </c>
       <c r="E4" t="n">
-        <v>38.67250990818521</v>
+        <v>185.5624574060956</v>
       </c>
       <c r="F4" t="n">
         <v>38.67250990818521</v>
@@ -4488,52 +4488,52 @@
         <v>38.67250990818521</v>
       </c>
       <c r="J4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="K4" t="n">
-        <v>43.17590452428121</v>
+        <v>89.66773767220428</v>
       </c>
       <c r="L4" t="n">
-        <v>216.0634826394163</v>
+        <v>262.5553157873394</v>
       </c>
       <c r="M4" t="n">
-        <v>401.7138139340732</v>
+        <v>448.2056470819963</v>
       </c>
       <c r="N4" t="n">
-        <v>587.3641452287301</v>
+        <v>471.6341805242525</v>
       </c>
       <c r="O4" t="n">
-        <v>750.1023486652803</v>
+        <v>634.3723839608027</v>
       </c>
       <c r="P4" t="n">
-        <v>750.1023486652803</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="Q4" t="n">
-        <v>750.1023486652803</v>
+        <v>746.7254979846282</v>
       </c>
       <c r="R4" t="n">
-        <v>750.1023486652803</v>
+        <v>746.7254979846282</v>
       </c>
       <c r="S4" t="n">
-        <v>750.1023486652803</v>
+        <v>746.7254979846282</v>
       </c>
       <c r="T4" t="n">
-        <v>750.1023486652803</v>
+        <v>746.7254979846282</v>
       </c>
       <c r="U4" t="n">
-        <v>750.1023486652803</v>
+        <v>746.7254979846282</v>
       </c>
       <c r="V4" t="n">
-        <v>560.6825636487954</v>
+        <v>746.7254979846282</v>
       </c>
       <c r="W4" t="n">
-        <v>417.512079941155</v>
+        <v>746.0504922693052</v>
       </c>
       <c r="X4" t="n">
-        <v>228.0922949246701</v>
+        <v>556.6307072528202</v>
       </c>
       <c r="Y4" t="n">
-        <v>38.67250990818521</v>
+        <v>367.2109222363353</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1065.856850471449</v>
+        <v>713.0993409222035</v>
       </c>
       <c r="C5" t="n">
-        <v>1065.856850471449</v>
+        <v>360.3418313729554</v>
       </c>
       <c r="D5" t="n">
-        <v>713.0993409222019</v>
+        <v>47.5487805972019</v>
       </c>
       <c r="E5" t="n">
-        <v>360.3418313729543</v>
+        <v>47.5487805972019</v>
       </c>
       <c r="F5" t="n">
-        <v>40.60327984799839</v>
+        <v>40.60327984799843</v>
       </c>
       <c r="G5" t="n">
-        <v>27.9383947563004</v>
+        <v>27.93839475630045</v>
       </c>
       <c r="H5" t="n">
-        <v>27.9383947563004</v>
+        <v>27.93839475630045</v>
       </c>
       <c r="I5" t="n">
-        <v>27.9383947563004</v>
+        <v>27.93839475630045</v>
       </c>
       <c r="J5" t="n">
-        <v>80.99020340874591</v>
+        <v>80.99020340874614</v>
       </c>
       <c r="K5" t="n">
-        <v>211.239630562053</v>
+        <v>211.2396305620534</v>
       </c>
       <c r="L5" t="n">
-        <v>409.7273242458655</v>
+        <v>409.7273242458663</v>
       </c>
       <c r="M5" t="n">
-        <v>662.2525653973817</v>
+        <v>662.2525653973827</v>
       </c>
       <c r="N5" t="n">
-        <v>923.4777373365739</v>
+        <v>923.4777373365752</v>
       </c>
       <c r="O5" t="n">
-        <v>1156.809998477532</v>
+        <v>1156.809998477533</v>
       </c>
       <c r="P5" t="n">
-        <v>1321.452684169733</v>
+        <v>1321.452684169735</v>
       </c>
       <c r="Q5" t="n">
-        <v>1396.91973781502</v>
+        <v>1396.919737815022</v>
       </c>
       <c r="R5" t="n">
-        <v>1396.91973781502</v>
+        <v>1396.919737815022</v>
       </c>
       <c r="S5" t="n">
-        <v>1396.91973781502</v>
+        <v>1396.919737815022</v>
       </c>
       <c r="T5" t="n">
-        <v>1396.91973781502</v>
+        <v>1396.919737815022</v>
       </c>
       <c r="U5" t="n">
-        <v>1396.91973781502</v>
+        <v>1396.919737815022</v>
       </c>
       <c r="V5" t="n">
-        <v>1065.856850471449</v>
+        <v>1065.856850471452</v>
       </c>
       <c r="W5" t="n">
-        <v>1065.856850471449</v>
+        <v>713.0993409222035</v>
       </c>
       <c r="X5" t="n">
-        <v>1065.856850471449</v>
+        <v>713.0993409222035</v>
       </c>
       <c r="Y5" t="n">
-        <v>1065.856850471449</v>
+        <v>713.0993409222035</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>926.425332374607</v>
+        <v>657.0978466772492</v>
       </c>
       <c r="C6" t="n">
-        <v>751.97230309348</v>
+        <v>482.6448173961222</v>
       </c>
       <c r="D6" t="n">
-        <v>603.0378934322288</v>
+        <v>333.710407734871</v>
       </c>
       <c r="E6" t="n">
-        <v>443.8004384267733</v>
+        <v>174.4729527294155</v>
       </c>
       <c r="F6" t="n">
-        <v>297.2658804536583</v>
+        <v>27.93839475630045</v>
       </c>
       <c r="G6" t="n">
-        <v>160.0291344128222</v>
+        <v>27.93839475630045</v>
       </c>
       <c r="H6" t="n">
-        <v>66.79713308377109</v>
+        <v>27.93839475630045</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9383947563004</v>
+        <v>27.93839475630045</v>
       </c>
       <c r="J6" t="n">
-        <v>40.71784159143066</v>
+        <v>40.71784159143075</v>
       </c>
       <c r="K6" t="n">
-        <v>140.7147764379369</v>
+        <v>140.7147764379371</v>
       </c>
       <c r="L6" t="n">
-        <v>374.7065044384317</v>
+        <v>321.4955368824494</v>
       </c>
       <c r="M6" t="n">
-        <v>605.0259931718432</v>
+        <v>551.8150256158611</v>
       </c>
       <c r="N6" t="n">
-        <v>855.8499983507475</v>
+        <v>802.6390307947656</v>
       </c>
       <c r="O6" t="n">
-        <v>1201.587633459965</v>
+        <v>1009.874197887849</v>
       </c>
       <c r="P6" t="n">
-        <v>1348.579058983949</v>
+        <v>1156.865623411833</v>
       </c>
       <c r="Q6" t="n">
-        <v>1396.91973781502</v>
+        <v>1396.919737815022</v>
       </c>
       <c r="R6" t="n">
-        <v>1388.514189308341</v>
+        <v>1396.919737815022</v>
       </c>
       <c r="S6" t="n">
-        <v>1388.514189308341</v>
+        <v>1396.919737815022</v>
       </c>
       <c r="T6" t="n">
-        <v>1388.514189308341</v>
+        <v>1396.919737815022</v>
       </c>
       <c r="U6" t="n">
-        <v>1388.514189308341</v>
+        <v>1396.919737815022</v>
       </c>
       <c r="V6" t="n">
-        <v>1388.514189308341</v>
+        <v>1287.402040631052</v>
       </c>
       <c r="W6" t="n">
-        <v>1134.27683258014</v>
+        <v>1033.16468390285</v>
       </c>
       <c r="X6" t="n">
-        <v>926.425332374607</v>
+        <v>825.3131836973173</v>
       </c>
       <c r="Y6" t="n">
-        <v>926.425332374607</v>
+        <v>825.3131836973173</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>202.6189524559823</v>
+        <v>493.8811645944535</v>
       </c>
       <c r="C7" t="n">
-        <v>33.68276952807541</v>
+        <v>324.9449816665465</v>
       </c>
       <c r="D7" t="n">
-        <v>33.68276952807541</v>
+        <v>174.8283422542108</v>
       </c>
       <c r="E7" t="n">
-        <v>33.68276952807541</v>
+        <v>174.8283422542108</v>
       </c>
       <c r="F7" t="n">
-        <v>33.68276952807541</v>
+        <v>27.93839475630045</v>
       </c>
       <c r="G7" t="n">
-        <v>33.68276952807541</v>
+        <v>27.93839475630045</v>
       </c>
       <c r="H7" t="n">
-        <v>33.68276952807541</v>
+        <v>27.93839475630045</v>
       </c>
       <c r="I7" t="n">
-        <v>33.68276952807541</v>
+        <v>27.93839475630045</v>
       </c>
       <c r="J7" t="n">
-        <v>27.9383947563004</v>
+        <v>27.93839475630045</v>
       </c>
       <c r="K7" t="n">
-        <v>148.523310587469</v>
+        <v>148.5233105874691</v>
       </c>
       <c r="L7" t="n">
-        <v>358.3569215208638</v>
+        <v>358.356921520864</v>
       </c>
       <c r="M7" t="n">
-        <v>589.9861665014272</v>
+        <v>589.9861665014275</v>
       </c>
       <c r="N7" t="n">
-        <v>821.5424021750244</v>
+        <v>821.5424021750249</v>
       </c>
       <c r="O7" t="n">
-        <v>1019.405768767885</v>
+        <v>1019.405768767886</v>
       </c>
       <c r="P7" t="n">
         <v>1165.191378612031</v>
       </c>
       <c r="Q7" t="n">
-        <v>1182.690698049271</v>
+        <v>1182.690698049272</v>
       </c>
       <c r="R7" t="n">
-        <v>1182.690698049271</v>
+        <v>1182.690698049272</v>
       </c>
       <c r="S7" t="n">
-        <v>1182.690698049271</v>
+        <v>1182.690698049272</v>
       </c>
       <c r="T7" t="n">
-        <v>1182.690698049271</v>
+        <v>1182.690698049272</v>
       </c>
       <c r="U7" t="n">
-        <v>893.5478801556799</v>
+        <v>1124.311759466241</v>
       </c>
       <c r="V7" t="n">
-        <v>893.5478801556799</v>
+        <v>1124.311759466241</v>
       </c>
       <c r="W7" t="n">
-        <v>833.0495473277695</v>
+        <v>1124.311759466241</v>
       </c>
       <c r="X7" t="n">
-        <v>605.0599964297521</v>
+        <v>896.3222085682233</v>
       </c>
       <c r="Y7" t="n">
-        <v>384.267417286222</v>
+        <v>675.5296294246932</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2057.32755894284</v>
+        <v>728.3028554854568</v>
       </c>
       <c r="C8" t="n">
-        <v>1688.365042002428</v>
+        <v>728.3028554854568</v>
       </c>
       <c r="D8" t="n">
-        <v>1330.099343395678</v>
+        <v>370.0371568787063</v>
       </c>
       <c r="E8" t="n">
-        <v>944.3110907974335</v>
+        <v>69.85663355251364</v>
       </c>
       <c r="F8" t="n">
-        <v>533.3251860078259</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I8" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816079</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4840,16 +4840,16 @@
         <v>2562.339328400155</v>
       </c>
       <c r="V8" t="n">
-        <v>2430.79331720392</v>
+        <v>2231.276441056584</v>
       </c>
       <c r="W8" t="n">
-        <v>2430.79331720392</v>
+        <v>1878.50778578647</v>
       </c>
       <c r="X8" t="n">
-        <v>2057.32755894284</v>
+        <v>1505.04202752539</v>
       </c>
       <c r="Y8" t="n">
-        <v>2057.32755894284</v>
+        <v>1114.902695549579</v>
       </c>
     </row>
     <row r="9">
@@ -4859,49 +4859,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756896</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G9" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057875</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>684.9695361605188</v>
+        <v>507.2413987429752</v>
       </c>
       <c r="L9" t="n">
-        <v>979.6730931919905</v>
+        <v>801.944955774447</v>
       </c>
       <c r="M9" t="n">
-        <v>1342.93511215121</v>
+        <v>1165.206974733667</v>
       </c>
       <c r="N9" t="n">
-        <v>1730.220240748155</v>
+        <v>1552.492103330612</v>
       </c>
       <c r="O9" t="n">
-        <v>2062.290675924317</v>
+        <v>1884.562538506774</v>
       </c>
       <c r="P9" t="n">
-        <v>2309.473409756614</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4916,16 +4916,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4938,49 +4938,49 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1006.01552520271</v>
+        <v>665.1026499885492</v>
       </c>
       <c r="C10" t="n">
-        <v>837.079342274803</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="D10" t="n">
-        <v>686.9627028624673</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E10" t="n">
-        <v>539.0496092800742</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F10" t="n">
-        <v>392.1596617821638</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G10" t="n">
-        <v>305.8408313751036</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386098</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I10" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
@@ -4998,16 +4998,16 @@
         <v>1636.446120074497</v>
       </c>
       <c r="V10" t="n">
-        <v>1636.446120074497</v>
+        <v>1584.950414897297</v>
       </c>
       <c r="W10" t="n">
-        <v>1636.446120074497</v>
+        <v>1295.533244860336</v>
       </c>
       <c r="X10" t="n">
-        <v>1408.45656917648</v>
+        <v>1067.543693962319</v>
       </c>
       <c r="Y10" t="n">
-        <v>1187.66399003295</v>
+        <v>846.7511148187889</v>
       </c>
     </row>
     <row r="11">
@@ -5035,16 +5035,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5059,16 +5059,16 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474784</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,10 +5114,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
@@ -5129,16 +5129,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1501.8401750111</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="N12" t="n">
-        <v>2129.438138565707</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>631.7012443408906</v>
+        <v>948.5505208511905</v>
       </c>
       <c r="C13" t="n">
-        <v>631.7012443408906</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="D13" t="n">
-        <v>631.7012443408906</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>2123.082773965825</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1868.398285759938</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1578.981115722978</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1350.99156482496</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>1130.19898568143</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5272,7 +5272,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
@@ -5281,7 +5281,7 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332388</v>
@@ -5293,25 +5293,25 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,25 +5351,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="17">
@@ -5497,49 +5497,49 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
         <v>4606.285157492578</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,25 +5588,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>577.8620388433919</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908939</v>
+        <v>408.925855915485</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908939</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1746.193029533436</v>
+        <v>1752.394291958027</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327549</v>
+        <v>1497.70980375214</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1208.292633715179</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>980.3030828171618</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>759.5105036736317</v>
       </c>
     </row>
     <row r="20">
@@ -5746,25 +5746,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5773,7 +5773,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5825,10 +5825,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J21" t="n">
         <v>243.4633055756266</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="23">
@@ -5965,46 +5965,46 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6016,25 +6016,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6062,13 +6062,13 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K24" t="n">
         <v>577.3880777468471</v>
@@ -6077,10 +6077,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>2297.690135143764</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6141,19 +6141,19 @@
         <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.77365361686</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6299,13 +6299,13 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K27" t="n">
         <v>577.3880777468471</v>
@@ -6314,10 +6314,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>2297.690135143764</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,13 +6360,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>768.5380889459582</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>768.5380889459582</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D28" t="n">
-        <v>618.4214495336224</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E28" t="n">
         <v>484.8112968429803</v>
@@ -6381,16 +6381,16 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6420,16 +6420,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1398.968683817745</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1170.979132919728</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>950.1865537761979</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6454,61 +6454,61 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="30">
@@ -6536,25 +6536,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>577.388077746847</v>
       </c>
       <c r="L30" t="n">
         <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>2297.690135143764</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,37 +6597,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>653.7474797708871</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6648,25 +6648,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6688,25 +6688,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014778</v>
@@ -6715,34 +6715,34 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6773,13 +6773,13 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K33" t="n">
         <v>577.3880777468471</v>
@@ -6788,10 +6788,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143764</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,37 +6834,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>244.7670222746419</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="35">
@@ -6940,19 +6940,19 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7016,7 +7016,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K36" t="n">
         <v>577.3880777468471</v>
@@ -7025,10 +7025,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143764</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7098,10 +7098,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7168,7 +7168,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192593</v>
@@ -7180,16 +7180,16 @@
         <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7201,7 +7201,7 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
         <v>4405.252601474784</v>
@@ -7247,13 +7247,13 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K39" t="n">
         <v>577.3880777468471</v>
@@ -7262,10 +7262,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143764</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7320,25 +7320,25 @@
         <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>198.027470314254</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7387,46 +7387,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7438,25 +7438,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7484,13 +7484,13 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K42" t="n">
         <v>577.3880777468471</v>
@@ -7499,10 +7499,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>2297.690135143764</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,37 +7545,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>560.7825789706076</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C43" t="n">
-        <v>391.8463960427007</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D43" t="n">
-        <v>241.729756630365</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E43" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>2024.390058741045</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>1735.314832085242</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V43" t="n">
-        <v>1480.630343879355</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W43" t="n">
-        <v>1191.213173842395</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X43" t="n">
-        <v>963.2236229443774</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y43" t="n">
-        <v>742.4310438008473</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="44">
@@ -7624,16 +7624,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
         <v>793.7736536168611</v>
@@ -7642,25 +7642,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7669,31 +7669,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7721,13 +7721,13 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K45" t="n">
         <v>577.3880777468471</v>
@@ -7736,10 +7736,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>2297.690135143764</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7797,22 +7797,22 @@
         <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -8139,7 +8139,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>42.5627518647109</v>
+        <v>89.52419948887562</v>
       </c>
       <c r="L4" t="n">
         <v>162.4747015415544</v>
@@ -8148,13 +8148,13 @@
         <v>171.4142040457085</v>
       </c>
       <c r="N4" t="n">
-        <v>163.8604018711117</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709382</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>41.92993463898952</v>
+        <v>41.92993463898944</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8300,7 +8300,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>53.7484520767502</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8309,13 +8309,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>139.9014828445798</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>193.649934921331</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>211.0329012241554</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>138.9393975111062</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23415,16 +23415,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>116.6691671648112</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>182.9484181982409</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>125.5054897610399</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23898,7 +23898,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>63.36835372228703</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>72.11969353038577</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.4949402405078</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24603,13 +24603,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>14.15991148283342</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24660,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>72.11969353038613</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25134,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>57.22910392194222</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25560,16 +25560,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>62.35543909864955</v>
       </c>
       <c r="H40" t="n">
-        <v>138.4949402405078</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25788,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>72.11969353038617</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>46.45968844823099</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26037,13 +26037,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>698883.433001764</v>
+        <v>698883.4330017639</v>
       </c>
     </row>
     <row r="11">
@@ -26316,46 +26316,46 @@
         <v>738937.5928778549</v>
       </c>
       <c r="C2" t="n">
-        <v>738937.5928778555</v>
+        <v>738937.5928778551</v>
       </c>
       <c r="D2" t="n">
         <v>738937.5928778546</v>
       </c>
       <c r="E2" t="n">
+        <v>726431.9397210052</v>
+      </c>
+      <c r="F2" t="n">
+        <v>726431.9397210053</v>
+      </c>
+      <c r="G2" t="n">
+        <v>726431.939721005</v>
+      </c>
+      <c r="H2" t="n">
+        <v>726431.939721005</v>
+      </c>
+      <c r="I2" t="n">
         <v>726431.9397210054</v>
-      </c>
-      <c r="F2" t="n">
-        <v>726431.9397210052</v>
-      </c>
-      <c r="G2" t="n">
-        <v>726431.9397210053</v>
-      </c>
-      <c r="H2" t="n">
-        <v>726431.9397210052</v>
-      </c>
-      <c r="I2" t="n">
-        <v>726431.9397210052</v>
       </c>
       <c r="J2" t="n">
         <v>726431.9397210054</v>
       </c>
       <c r="K2" t="n">
-        <v>726431.9397210052</v>
+        <v>726431.9397210053</v>
       </c>
       <c r="L2" t="n">
         <v>726431.9397210053</v>
       </c>
       <c r="M2" t="n">
+        <v>726431.9397210053</v>
+      </c>
+      <c r="N2" t="n">
+        <v>726431.9397210055</v>
+      </c>
+      <c r="O2" t="n">
         <v>726431.9397210054</v>
       </c>
-      <c r="N2" t="n">
-        <v>726431.9397210052</v>
-      </c>
-      <c r="O2" t="n">
-        <v>726431.9397210053</v>
-      </c>
       <c r="P2" t="n">
-        <v>726431.9397210053</v>
+        <v>726431.9397210054</v>
       </c>
     </row>
     <row r="3">
@@ -26368,10 +26368,10 @@
         <v>591356.9025208456</v>
       </c>
       <c r="C3" t="n">
-        <v>178997.5061427109</v>
+        <v>178997.5061427113</v>
       </c>
       <c r="D3" t="n">
-        <v>301519.8707731212</v>
+        <v>301519.870773121</v>
       </c>
       <c r="E3" t="n">
         <v>507485.441624546</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854465</v>
+        <v>49064.94472854469</v>
       </c>
       <c r="K3" t="n">
-        <v>41617.52445267256</v>
+        <v>41617.52445267266</v>
       </c>
       <c r="L3" t="n">
-        <v>73739.30240019559</v>
+        <v>73739.30240019548</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289267</v>
+        <v>132607.2937289268</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,10 +26420,10 @@
         <v>277470.8484307131</v>
       </c>
       <c r="C4" t="n">
-        <v>229588.138980697</v>
+        <v>229588.1389806968</v>
       </c>
       <c r="D4" t="n">
-        <v>145155.2306979383</v>
+        <v>145155.2306979382</v>
       </c>
       <c r="E4" t="n">
         <v>13606.80811184274</v>
@@ -26432,34 +26432,34 @@
         <v>13606.80811184274</v>
       </c>
       <c r="G4" t="n">
+        <v>13606.8081118427</v>
+      </c>
+      <c r="H4" t="n">
+        <v>13606.80811184279</v>
+      </c>
+      <c r="I4" t="n">
+        <v>13606.80811184281</v>
+      </c>
+      <c r="J4" t="n">
+        <v>13606.80811184279</v>
+      </c>
+      <c r="K4" t="n">
+        <v>13606.80811184283</v>
+      </c>
+      <c r="L4" t="n">
+        <v>13606.80811184279</v>
+      </c>
+      <c r="M4" t="n">
         <v>13606.80811184274</v>
-      </c>
-      <c r="H4" t="n">
-        <v>13606.80811184274</v>
-      </c>
-      <c r="I4" t="n">
-        <v>13606.80811184274</v>
-      </c>
-      <c r="J4" t="n">
-        <v>13606.80811184274</v>
-      </c>
-      <c r="K4" t="n">
-        <v>13606.80811184274</v>
-      </c>
-      <c r="L4" t="n">
-        <v>13606.80811184274</v>
-      </c>
-      <c r="M4" t="n">
-        <v>13606.80811184275</v>
       </c>
       <c r="N4" t="n">
         <v>13606.80811184274</v>
       </c>
       <c r="O4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184281</v>
       </c>
       <c r="P4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184279</v>
       </c>
     </row>
     <row r="5">
@@ -26472,7 +26472,7 @@
         <v>56985.80041161359</v>
       </c>
       <c r="C5" t="n">
-        <v>69851.97930029173</v>
+        <v>69851.97930029177</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
@@ -26524,46 +26524,46 @@
         <v>-186875.9584853174</v>
       </c>
       <c r="C6" t="n">
-        <v>260499.968454156</v>
+        <v>260499.9684541552</v>
       </c>
       <c r="D6" t="n">
-        <v>199324.7189669504</v>
+        <v>199324.7189669507</v>
       </c>
       <c r="E6" t="n">
-        <v>103869.7809063526</v>
+        <v>104182.4222352736</v>
       </c>
       <c r="F6" t="n">
-        <v>611355.2225308984</v>
+        <v>611667.8638598197</v>
       </c>
       <c r="G6" t="n">
-        <v>611355.2225308985</v>
+        <v>611667.8638598195</v>
       </c>
       <c r="H6" t="n">
-        <v>611355.2225308984</v>
+        <v>611667.8638598196</v>
       </c>
       <c r="I6" t="n">
-        <v>611355.2225308984</v>
+        <v>611667.8638598199</v>
       </c>
       <c r="J6" t="n">
-        <v>562290.277802354</v>
+        <v>562602.9191312751</v>
       </c>
       <c r="K6" t="n">
-        <v>569737.6980782258</v>
+        <v>570050.339407147</v>
       </c>
       <c r="L6" t="n">
-        <v>537615.9201307029</v>
+        <v>537928.5614596242</v>
       </c>
       <c r="M6" t="n">
-        <v>478747.9288019719</v>
+        <v>479060.5701308929</v>
       </c>
       <c r="N6" t="n">
-        <v>611355.2225308984</v>
+        <v>611667.8638598201</v>
       </c>
       <c r="O6" t="n">
-        <v>611355.2225308985</v>
+        <v>611667.8638598198</v>
       </c>
       <c r="P6" t="n">
-        <v>611355.2225308985</v>
+        <v>611667.8638598199</v>
       </c>
     </row>
   </sheetData>
@@ -26709,16 +26709,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>6.486328715517441e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26727,7 +26727,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26740,10 +26740,10 @@
         <v>548.4699409129048</v>
       </c>
       <c r="C3" t="n">
-        <v>687.6696919955699</v>
+        <v>687.6696919955702</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26792,19 +26792,19 @@
         <v>187.5255871663201</v>
       </c>
       <c r="C4" t="n">
-        <v>349.229934453755</v>
+        <v>349.2299344537556</v>
       </c>
       <c r="D4" t="n">
         <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26931,10 +26931,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.268305166733595e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26949,7 +26949,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>6.110476109773995e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26962,10 +26962,10 @@
         <v>548.4699409129048</v>
       </c>
       <c r="C3" t="n">
-        <v>139.1997510826651</v>
+        <v>139.1997510826654</v>
       </c>
       <c r="D3" t="n">
-        <v>246.3952001219692</v>
+        <v>246.3952001219691</v>
       </c>
       <c r="E3" t="n">
         <v>433.9106082241346</v>
@@ -27014,13 +27014,13 @@
         <v>187.5255871663201</v>
       </c>
       <c r="C4" t="n">
-        <v>161.704347287435</v>
+        <v>161.7043472874355</v>
       </c>
       <c r="D4" t="n">
-        <v>291.3548976462837</v>
+        <v>291.3548976462831</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996099</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27038,13 +27038,13 @@
         <v>187.5255871663201</v>
       </c>
       <c r="K4" t="n">
-        <v>161.704347287435</v>
+        <v>161.7043472874352</v>
       </c>
       <c r="L4" t="n">
-        <v>291.3548976462837</v>
+        <v>291.3548976462833</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996101</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27168,10 +27168,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>3.268305166733595e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27260,13 +27260,13 @@
         <v>187.5255871663201</v>
       </c>
       <c r="K4" t="n">
-        <v>161.704347287435</v>
+        <v>161.7043472874355</v>
       </c>
       <c r="L4" t="n">
-        <v>291.3548976462837</v>
+        <v>291.3548976462831</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996099</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,22 +27384,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>185.2238628420605</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>349.7903508530058</v>
+        <v>219.3504585753913</v>
       </c>
       <c r="G2" t="n">
-        <v>225.572246063738</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27435,13 +27435,13 @@
         <v>213.4438810562068</v>
       </c>
       <c r="U2" t="n">
-        <v>63.64367339871027</v>
+        <v>251.1692605650303</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>161.7153815510929</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27478,7 +27478,7 @@
         <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>48.77881175550655</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27514,7 +27514,7 @@
         <v>195.4095977920012</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8637684100909</v>
+        <v>142.4462983932586</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -27526,7 +27526,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>171.0440375159789</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27548,7 +27548,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.0019352027142</v>
@@ -27581,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.343082173845758</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>132.8223696106904</v>
@@ -27596,16 +27596,16 @@
         <v>286.2650814934503</v>
       </c>
       <c r="V4" t="n">
-        <v>64.61205615750794</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>144.7842194660271</v>
+        <v>285.8547426784212</v>
       </c>
       <c r="X4" t="n">
-        <v>38.18406822271709</v>
+        <v>38.18406822271703</v>
       </c>
       <c r="Y4" t="n">
-        <v>31.05906618577472</v>
+        <v>31.05906618577467</v>
       </c>
     </row>
     <row r="5">
@@ -27618,25 +27618,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>16.04295731725193</v>
       </c>
       <c r="D5" t="n">
-        <v>5.453107166927907</v>
+        <v>45.01792135268704</v>
       </c>
       <c r="E5" t="n">
-        <v>32.70043561850673</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>90.33487973200511</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>311.1628534397888</v>
+        <v>311.1628534397887</v>
       </c>
       <c r="I5" t="n">
-        <v>103.8974541908714</v>
+        <v>103.8974541908713</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27678,7 +27678,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0.01103426365739324</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27694,7 +27694,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -27709,13 +27709,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.8643785804277</v>
       </c>
       <c r="H6" t="n">
-        <v>5.650398187016577</v>
+        <v>97.95007950277716</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>38.47015094419595</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,7 +27742,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>8.321493021612028</v>
       </c>
       <c r="S6" t="n">
         <v>144.2088206736375</v>
@@ -27754,7 +27754,7 @@
         <v>225.8440703321075</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>124.3780669372942</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -27779,13 +27779,13 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.7509192581389</v>
@@ -27797,7 +27797,7 @@
         <v>118.1584857285477</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>5.686931024057216</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27830,13 +27830,13 @@
         <v>222.6471508178238</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>228.4562405174546</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>226.6296488369597</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>84.75165197933109</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27912,16 +27912,16 @@
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>197.521707385862</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>80.85095794181458</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28070,10 +28070,10 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>201.1568951983995</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28614,7 +28614,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28851,7 +28851,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -29052,7 +29052,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29289,7 +29289,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29511,7 +29511,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>1.750004968523274e-12</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -29526,7 +29526,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>6.486328715517441e-14</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29805,7 +29805,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -30474,7 +30474,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -30708,7 +30708,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.764501274354048</v>
+        <v>2.764501274354049</v>
       </c>
       <c r="H5" t="n">
-        <v>28.3119486759784</v>
+        <v>28.31194867597841</v>
       </c>
       <c r="I5" t="n">
-        <v>106.5784353795345</v>
+        <v>106.5784353795346</v>
       </c>
       <c r="J5" t="n">
-        <v>234.6335900342071</v>
+        <v>234.6335900342072</v>
       </c>
       <c r="K5" t="n">
-        <v>351.654928977614</v>
+        <v>351.6549289776141</v>
       </c>
       <c r="L5" t="n">
-        <v>436.2590348526268</v>
+        <v>436.259034852627</v>
       </c>
       <c r="M5" t="n">
-        <v>485.4222343904206</v>
+        <v>485.4222343904208</v>
       </c>
       <c r="N5" t="n">
-        <v>493.276873636179</v>
+        <v>493.2768736361793</v>
       </c>
       <c r="O5" t="n">
-        <v>465.7873640893209</v>
+        <v>465.7873640893212</v>
       </c>
       <c r="P5" t="n">
-        <v>397.5387388787053</v>
+        <v>397.5387388787055</v>
       </c>
       <c r="Q5" t="n">
-        <v>298.5350369909009</v>
+        <v>298.535036990901</v>
       </c>
       <c r="R5" t="n">
-        <v>173.6556031751426</v>
+        <v>173.6556031751427</v>
       </c>
       <c r="S5" t="n">
-        <v>62.99607278934293</v>
+        <v>62.99607278934296</v>
       </c>
       <c r="T5" t="n">
-        <v>12.10160432848485</v>
+        <v>12.10160432848486</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2211601019483238</v>
+        <v>0.2211601019483239</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.479138582782924</v>
+        <v>1.479138582782925</v>
       </c>
       <c r="H6" t="n">
-        <v>14.28536473371929</v>
+        <v>14.2853647337193</v>
       </c>
       <c r="I6" t="n">
-        <v>50.9264819072191</v>
+        <v>50.92648190721913</v>
       </c>
       <c r="J6" t="n">
-        <v>139.7461588233639</v>
+        <v>139.746158823364</v>
       </c>
       <c r="K6" t="n">
-        <v>238.8484438698198</v>
+        <v>238.8484438698199</v>
       </c>
       <c r="L6" t="n">
-        <v>321.1612085117046</v>
+        <v>321.1612085117048</v>
       </c>
       <c r="M6" t="n">
-        <v>374.7799821375855</v>
+        <v>374.7799821375858</v>
       </c>
       <c r="N6" t="n">
-        <v>384.6992930721255</v>
+        <v>384.6992930721257</v>
       </c>
       <c r="O6" t="n">
-        <v>351.9246960536196</v>
+        <v>351.9246960536198</v>
       </c>
       <c r="P6" t="n">
-        <v>282.4505948122936</v>
+        <v>282.4505948122938</v>
       </c>
       <c r="Q6" t="n">
-        <v>188.8107426022554</v>
+        <v>188.8107426022555</v>
       </c>
       <c r="R6" t="n">
-        <v>91.83634113103105</v>
+        <v>91.83634113103111</v>
       </c>
       <c r="S6" t="n">
-        <v>27.47435043020035</v>
+        <v>27.47435043020036</v>
       </c>
       <c r="T6" t="n">
-        <v>5.961966480603099</v>
+        <v>5.961966480603103</v>
       </c>
       <c r="U6" t="n">
-        <v>0.09731174886729767</v>
+        <v>0.09731174886729772</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.24006010031988</v>
+        <v>1.240060100319881</v>
       </c>
       <c r="H7" t="n">
         <v>11.02526161920767</v>
       </c>
       <c r="I7" t="n">
-        <v>37.29198919871059</v>
+        <v>37.2919891987106</v>
       </c>
       <c r="J7" t="n">
-        <v>87.67224909261552</v>
+        <v>87.67224909261556</v>
       </c>
       <c r="K7" t="n">
-        <v>144.0724371098915</v>
+        <v>144.0724371098916</v>
       </c>
       <c r="L7" t="n">
-        <v>184.3631170966484</v>
+        <v>184.3631170966485</v>
       </c>
       <c r="M7" t="n">
-        <v>194.3850573619608</v>
+        <v>194.3850573619609</v>
       </c>
       <c r="N7" t="n">
-        <v>189.7630151698596</v>
+        <v>189.7630151698597</v>
       </c>
       <c r="O7" t="n">
         <v>175.2768585433955</v>
       </c>
       <c r="P7" t="n">
-        <v>149.9796324968698</v>
+        <v>149.9796324968699</v>
       </c>
       <c r="Q7" t="n">
-        <v>103.838123491331</v>
+        <v>103.8381234913311</v>
       </c>
       <c r="R7" t="n">
-        <v>55.7576114198375</v>
+        <v>55.75761141983753</v>
       </c>
       <c r="S7" t="n">
-        <v>21.61086556648372</v>
+        <v>21.61086556648373</v>
       </c>
       <c r="T7" t="n">
-        <v>5.298438610457668</v>
+        <v>5.29843861045767</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0676396418356299</v>
+        <v>0.06763964183562993</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31597,10 +31597,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31609,34 +31609,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31679,7 +31679,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31694,10 +31694,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31706,16 +31706,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31843,37 +31843,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>575.5951359912046</v>
+        <v>416.4300581532619</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,31 +32068,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32700,37 +32700,37 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R23" t="n">
         <v>345.4516222043725</v>
@@ -32739,10 +32739,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32788,22 +32788,22 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565762</v>
+        <v>400.5469039565771</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32815,10 +32815,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T24" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U24" t="n">
         <v>0.1935814387275954</v>
@@ -32864,28 +32864,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J25" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N25" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q25" t="n">
         <v>206.5643005515927</v>
@@ -32894,7 +32894,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
@@ -32937,37 +32937,37 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R26" t="n">
         <v>345.4516222043725</v>
@@ -32976,10 +32976,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33025,22 +33025,22 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>400.5469039565771</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,10 +33052,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T27" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U27" t="n">
         <v>0.1935814387275954</v>
@@ -33101,28 +33101,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J28" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N28" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P28" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q28" t="n">
         <v>206.5643005515927</v>
@@ -33131,7 +33131,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
@@ -33174,37 +33174,37 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R29" t="n">
         <v>345.4516222043725</v>
@@ -33213,10 +33213,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33262,22 +33262,22 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>400.5469039565771</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33289,10 +33289,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T30" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U30" t="n">
         <v>0.1935814387275954</v>
@@ -33338,28 +33338,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J31" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N31" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P31" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q31" t="n">
         <v>206.5643005515927</v>
@@ -33368,7 +33368,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
@@ -33411,37 +33411,37 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R32" t="n">
         <v>345.4516222043725</v>
@@ -33450,10 +33450,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33499,22 +33499,22 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N33" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565771</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,10 +33526,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T33" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U33" t="n">
         <v>0.1935814387275954</v>
@@ -33575,28 +33575,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J34" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N34" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P34" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q34" t="n">
         <v>206.5643005515927</v>
@@ -33605,7 +33605,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
@@ -33648,37 +33648,37 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R35" t="n">
         <v>345.4516222043725</v>
@@ -33687,10 +33687,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33736,22 +33736,22 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N36" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565771</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33763,10 +33763,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U36" t="n">
         <v>0.1935814387275954</v>
@@ -33812,28 +33812,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J37" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N37" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q37" t="n">
         <v>206.5643005515927</v>
@@ -33842,7 +33842,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
@@ -33885,37 +33885,37 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33924,10 +33924,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33973,22 +33973,22 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N39" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565771</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,10 +34000,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U39" t="n">
         <v>0.1935814387275954</v>
@@ -34049,28 +34049,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N40" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q40" t="n">
         <v>206.5643005515927</v>
@@ -34079,7 +34079,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34122,37 +34122,37 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34161,10 +34161,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34210,22 +34210,22 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O42" t="n">
-        <v>400.5469039565762</v>
+        <v>400.5469039565771</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34237,10 +34237,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U42" t="n">
         <v>0.1935814387275954</v>
@@ -34286,28 +34286,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N43" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q43" t="n">
         <v>206.5643005515927</v>
@@ -34316,7 +34316,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34359,37 +34359,37 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34398,10 +34398,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34447,22 +34447,22 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O45" t="n">
-        <v>400.5469039565762</v>
+        <v>400.5469039565771</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34474,10 +34474,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U45" t="n">
         <v>0.1935814387275954</v>
@@ -34523,28 +34523,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J46" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N46" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q46" t="n">
         <v>206.5643005515927</v>
@@ -34553,7 +34553,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>28.45844197068243</v>
+        <v>75.41988959484715</v>
       </c>
       <c r="L4" t="n">
         <v>174.6339172880153</v>
@@ -34868,13 +34868,13 @@
         <v>187.5255871663201</v>
       </c>
       <c r="N4" t="n">
-        <v>187.5255871663201</v>
+        <v>23.66518529520832</v>
       </c>
       <c r="O4" t="n">
         <v>164.382023673283</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>116.8989542469473</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>53.5876855075208</v>
+        <v>53.58768550752092</v>
       </c>
       <c r="K5" t="n">
-        <v>131.5650779326334</v>
+        <v>131.5650779326336</v>
       </c>
       <c r="L5" t="n">
-        <v>200.4926198826395</v>
+        <v>200.4926198826398</v>
       </c>
       <c r="M5" t="n">
-        <v>255.0760011631478</v>
+        <v>255.076001163148</v>
       </c>
       <c r="N5" t="n">
-        <v>263.8638100395881</v>
+        <v>263.8638100395884</v>
       </c>
       <c r="O5" t="n">
-        <v>235.6891526676342</v>
+        <v>235.6891526676344</v>
       </c>
       <c r="P5" t="n">
-        <v>166.3057431234358</v>
+        <v>166.3057431234359</v>
       </c>
       <c r="Q5" t="n">
-        <v>76.22934711645141</v>
+        <v>76.22934711645152</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>12.90853215669722</v>
+        <v>12.90853215669728</v>
       </c>
       <c r="K6" t="n">
-        <v>101.0070048954608</v>
+        <v>101.0070048954609</v>
       </c>
       <c r="L6" t="n">
-        <v>236.3552808085806</v>
+        <v>182.6068287318306</v>
       </c>
       <c r="M6" t="n">
-        <v>232.6459482155672</v>
+        <v>232.6459482155674</v>
       </c>
       <c r="N6" t="n">
-        <v>253.3575809887922</v>
+        <v>253.3575809887924</v>
       </c>
       <c r="O6" t="n">
-        <v>349.229934453755</v>
+        <v>209.3284516091754</v>
       </c>
       <c r="P6" t="n">
-        <v>148.4761873979634</v>
+        <v>148.4761873979635</v>
       </c>
       <c r="Q6" t="n">
-        <v>48.82896851623386</v>
+        <v>242.4789034375649</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,25 +35096,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>121.8029452840086</v>
+        <v>121.8029452840087</v>
       </c>
       <c r="L7" t="n">
-        <v>211.9531423569645</v>
+        <v>211.9531423569646</v>
       </c>
       <c r="M7" t="n">
-        <v>233.9689343238014</v>
+        <v>233.9689343238015</v>
       </c>
       <c r="N7" t="n">
-        <v>233.8951875490882</v>
+        <v>233.8951875490883</v>
       </c>
       <c r="O7" t="n">
-        <v>199.8619864574351</v>
+        <v>199.8619864574352</v>
       </c>
       <c r="P7" t="n">
-        <v>147.2581917617633</v>
+        <v>147.2581917617634</v>
       </c>
       <c r="Q7" t="n">
-        <v>17.67608023963666</v>
+        <v>17.67608023963672</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K9" t="n">
-        <v>451.0527332560634</v>
+        <v>397.6203974676403</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235322</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q9" t="n">
-        <v>255.4201198419607</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35494,22 +35494,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>433.4611020691863</v>
+        <v>274.2960242312436</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,16 +35731,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,16 +35968,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36354,31 +36354,31 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L23" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R23" t="n">
         <v>129.8660843902404</v>
@@ -36436,22 +36436,22 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121318</v>
+        <v>257.9506595121327</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K25" t="n">
         <v>264.3325884096349</v>
@@ -36524,19 +36524,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P25" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36591,31 +36591,31 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L26" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902404</v>
@@ -36673,22 +36673,22 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>257.9506595121327</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K28" t="n">
         <v>264.3325884096349</v>
@@ -36761,19 +36761,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P28" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36828,31 +36828,31 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L29" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902404</v>
@@ -36910,22 +36910,22 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>257.9506595121327</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K31" t="n">
         <v>264.3325884096349</v>
@@ -36998,19 +36998,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P31" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37065,31 +37065,31 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902404</v>
@@ -37147,22 +37147,22 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N33" t="n">
-        <v>334.4034204366973</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121327</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K34" t="n">
         <v>264.3325884096349</v>
@@ -37235,19 +37235,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P34" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37302,31 +37302,31 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902404</v>
@@ -37384,22 +37384,22 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N36" t="n">
-        <v>334.4034204366973</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121327</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K37" t="n">
         <v>264.3325884096349</v>
@@ -37472,19 +37472,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P37" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37539,31 +37539,31 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37621,22 +37621,22 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N39" t="n">
-        <v>334.4034204366973</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121327</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K40" t="n">
         <v>264.3325884096349</v>
@@ -37709,19 +37709,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P40" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37776,31 +37776,31 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37858,22 +37858,22 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O42" t="n">
-        <v>257.9506595121318</v>
+        <v>257.9506595121327</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K43" t="n">
         <v>264.3325884096349</v>
@@ -37946,19 +37946,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P43" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38013,31 +38013,31 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38095,22 +38095,22 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O45" t="n">
-        <v>257.9506595121318</v>
+        <v>257.9506595121327</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K46" t="n">
         <v>264.3325884096349</v>
@@ -38183,19 +38183,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P46" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
